--- a/SuppXLS/Scen_ELC_ELC_NoCOA-2030.xlsx
+++ b/SuppXLS/Scen_ELC_ELC_NoCOA-2030.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7366F05-9080-44E2-AD6E-671BAB4F5D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B2B479-2772-46E0-8C2A-728030DF23FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Kill_Subs" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,6 +49,19 @@
             <family val="2"/>
           </rPr>
           <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
         </r>
       </text>
     </comment>
@@ -70,6 +96,9 @@
     <t>Trans - Insert</t>
   </si>
   <si>
+    <t>IE</t>
+  </si>
+  <si>
     <t>ACT_BND</t>
   </si>
   <si>
@@ -80,23 +109,38 @@
   </si>
   <si>
     <t>P*COA*,P*PEA*</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allregions</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="202" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="203" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="204" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -124,17 +168,248 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Myriad Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,12 +424,119 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -178,27 +560,2969 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="1469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="1469">
+    <cellStyle name="20% - Accent1 2" xfId="1"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="2"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="3"/>
+    <cellStyle name="20% - Accent1 2 4" xfId="4"/>
+    <cellStyle name="20% - Accent1 2 5" xfId="5"/>
+    <cellStyle name="20% - Accent1 2 6" xfId="6"/>
+    <cellStyle name="20% - Accent1 2 7" xfId="7"/>
+    <cellStyle name="20% - Accent1 3" xfId="8"/>
+    <cellStyle name="20% - Accent1 3 2" xfId="9"/>
+    <cellStyle name="20% - Accent1 3 3" xfId="10"/>
+    <cellStyle name="20% - Accent1 3 4" xfId="11"/>
+    <cellStyle name="20% - Accent1 3 5" xfId="12"/>
+    <cellStyle name="20% - Accent1 3 6" xfId="13"/>
+    <cellStyle name="20% - Accent1 3 7" xfId="14"/>
+    <cellStyle name="20% - Accent1 4" xfId="15"/>
+    <cellStyle name="20% - Accent1 4 2" xfId="16"/>
+    <cellStyle name="20% - Accent1 4 3" xfId="17"/>
+    <cellStyle name="20% - Accent1 4 4" xfId="18"/>
+    <cellStyle name="20% - Accent1 4 5" xfId="19"/>
+    <cellStyle name="20% - Accent1 4 6" xfId="20"/>
+    <cellStyle name="20% - Accent1 4 7" xfId="21"/>
+    <cellStyle name="20% - Accent1 5" xfId="22"/>
+    <cellStyle name="20% - Accent1 5 2" xfId="23"/>
+    <cellStyle name="20% - Accent1 5 3" xfId="24"/>
+    <cellStyle name="20% - Accent1 5 4" xfId="25"/>
+    <cellStyle name="20% - Accent1 5 5" xfId="26"/>
+    <cellStyle name="20% - Accent1 5 6" xfId="27"/>
+    <cellStyle name="20% - Accent1 6" xfId="28"/>
+    <cellStyle name="20% - Accent1 6 2" xfId="29"/>
+    <cellStyle name="20% - Accent1 6 3" xfId="30"/>
+    <cellStyle name="20% - Accent1 6 4" xfId="31"/>
+    <cellStyle name="20% - Accent1 6 5" xfId="32"/>
+    <cellStyle name="20% - Accent1 6 6" xfId="33"/>
+    <cellStyle name="20% - Accent2 2" xfId="34"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="35"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="36"/>
+    <cellStyle name="20% - Accent2 2 4" xfId="37"/>
+    <cellStyle name="20% - Accent2 2 5" xfId="38"/>
+    <cellStyle name="20% - Accent2 2 6" xfId="39"/>
+    <cellStyle name="20% - Accent2 2 7" xfId="40"/>
+    <cellStyle name="20% - Accent2 3" xfId="41"/>
+    <cellStyle name="20% - Accent2 3 2" xfId="42"/>
+    <cellStyle name="20% - Accent2 3 3" xfId="43"/>
+    <cellStyle name="20% - Accent2 3 4" xfId="44"/>
+    <cellStyle name="20% - Accent2 3 5" xfId="45"/>
+    <cellStyle name="20% - Accent2 3 6" xfId="46"/>
+    <cellStyle name="20% - Accent2 3 7" xfId="47"/>
+    <cellStyle name="20% - Accent2 4" xfId="48"/>
+    <cellStyle name="20% - Accent2 4 2" xfId="49"/>
+    <cellStyle name="20% - Accent2 4 3" xfId="50"/>
+    <cellStyle name="20% - Accent2 4 4" xfId="51"/>
+    <cellStyle name="20% - Accent2 4 5" xfId="52"/>
+    <cellStyle name="20% - Accent2 4 6" xfId="53"/>
+    <cellStyle name="20% - Accent2 4 7" xfId="54"/>
+    <cellStyle name="20% - Accent2 5" xfId="55"/>
+    <cellStyle name="20% - Accent2 5 2" xfId="56"/>
+    <cellStyle name="20% - Accent2 5 3" xfId="57"/>
+    <cellStyle name="20% - Accent2 5 4" xfId="58"/>
+    <cellStyle name="20% - Accent2 5 5" xfId="59"/>
+    <cellStyle name="20% - Accent2 5 6" xfId="60"/>
+    <cellStyle name="20% - Accent2 6" xfId="61"/>
+    <cellStyle name="20% - Accent2 6 2" xfId="62"/>
+    <cellStyle name="20% - Accent2 6 3" xfId="63"/>
+    <cellStyle name="20% - Accent2 6 4" xfId="64"/>
+    <cellStyle name="20% - Accent2 6 5" xfId="65"/>
+    <cellStyle name="20% - Accent2 6 6" xfId="66"/>
+    <cellStyle name="20% - Accent3 2" xfId="67"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="68"/>
+    <cellStyle name="20% - Accent3 2 3" xfId="69"/>
+    <cellStyle name="20% - Accent3 2 4" xfId="70"/>
+    <cellStyle name="20% - Accent3 2 5" xfId="71"/>
+    <cellStyle name="20% - Accent3 2 6" xfId="72"/>
+    <cellStyle name="20% - Accent3 2 7" xfId="73"/>
+    <cellStyle name="20% - Accent3 3" xfId="74"/>
+    <cellStyle name="20% - Accent3 3 2" xfId="75"/>
+    <cellStyle name="20% - Accent3 3 3" xfId="76"/>
+    <cellStyle name="20% - Accent3 3 4" xfId="77"/>
+    <cellStyle name="20% - Accent3 3 5" xfId="78"/>
+    <cellStyle name="20% - Accent3 3 6" xfId="79"/>
+    <cellStyle name="20% - Accent3 3 7" xfId="80"/>
+    <cellStyle name="20% - Accent3 4" xfId="81"/>
+    <cellStyle name="20% - Accent3 4 2" xfId="82"/>
+    <cellStyle name="20% - Accent3 4 3" xfId="83"/>
+    <cellStyle name="20% - Accent3 4 4" xfId="84"/>
+    <cellStyle name="20% - Accent3 4 5" xfId="85"/>
+    <cellStyle name="20% - Accent3 4 6" xfId="86"/>
+    <cellStyle name="20% - Accent3 4 7" xfId="87"/>
+    <cellStyle name="20% - Accent3 5" xfId="88"/>
+    <cellStyle name="20% - Accent3 5 2" xfId="89"/>
+    <cellStyle name="20% - Accent3 5 3" xfId="90"/>
+    <cellStyle name="20% - Accent3 5 4" xfId="91"/>
+    <cellStyle name="20% - Accent3 5 5" xfId="92"/>
+    <cellStyle name="20% - Accent3 5 6" xfId="93"/>
+    <cellStyle name="20% - Accent3 6" xfId="94"/>
+    <cellStyle name="20% - Accent3 6 2" xfId="95"/>
+    <cellStyle name="20% - Accent3 6 3" xfId="96"/>
+    <cellStyle name="20% - Accent3 6 4" xfId="97"/>
+    <cellStyle name="20% - Accent3 6 5" xfId="98"/>
+    <cellStyle name="20% - Accent3 6 6" xfId="99"/>
+    <cellStyle name="20% - Accent4 2" xfId="100"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="101"/>
+    <cellStyle name="20% - Accent4 2 3" xfId="102"/>
+    <cellStyle name="20% - Accent4 2 4" xfId="103"/>
+    <cellStyle name="20% - Accent4 2 5" xfId="104"/>
+    <cellStyle name="20% - Accent4 2 6" xfId="105"/>
+    <cellStyle name="20% - Accent4 2 7" xfId="106"/>
+    <cellStyle name="20% - Accent4 3" xfId="107"/>
+    <cellStyle name="20% - Accent4 3 2" xfId="108"/>
+    <cellStyle name="20% - Accent4 3 3" xfId="109"/>
+    <cellStyle name="20% - Accent4 3 4" xfId="110"/>
+    <cellStyle name="20% - Accent4 3 5" xfId="111"/>
+    <cellStyle name="20% - Accent4 3 6" xfId="112"/>
+    <cellStyle name="20% - Accent4 3 7" xfId="113"/>
+    <cellStyle name="20% - Accent4 4" xfId="114"/>
+    <cellStyle name="20% - Accent4 4 2" xfId="115"/>
+    <cellStyle name="20% - Accent4 4 3" xfId="116"/>
+    <cellStyle name="20% - Accent4 4 4" xfId="117"/>
+    <cellStyle name="20% - Accent4 4 5" xfId="118"/>
+    <cellStyle name="20% - Accent4 4 6" xfId="119"/>
+    <cellStyle name="20% - Accent4 4 7" xfId="120"/>
+    <cellStyle name="20% - Accent4 5" xfId="121"/>
+    <cellStyle name="20% - Accent4 5 2" xfId="122"/>
+    <cellStyle name="20% - Accent4 5 3" xfId="123"/>
+    <cellStyle name="20% - Accent4 5 4" xfId="124"/>
+    <cellStyle name="20% - Accent4 5 5" xfId="125"/>
+    <cellStyle name="20% - Accent4 5 6" xfId="126"/>
+    <cellStyle name="20% - Accent4 6" xfId="127"/>
+    <cellStyle name="20% - Accent4 6 2" xfId="128"/>
+    <cellStyle name="20% - Accent4 6 3" xfId="129"/>
+    <cellStyle name="20% - Accent4 6 4" xfId="130"/>
+    <cellStyle name="20% - Accent4 6 5" xfId="131"/>
+    <cellStyle name="20% - Accent4 6 6" xfId="132"/>
+    <cellStyle name="20% - Accent5 2" xfId="133"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="134"/>
+    <cellStyle name="20% - Accent5 2 3" xfId="135"/>
+    <cellStyle name="20% - Accent5 2 4" xfId="136"/>
+    <cellStyle name="20% - Accent5 2 5" xfId="137"/>
+    <cellStyle name="20% - Accent5 2 6" xfId="138"/>
+    <cellStyle name="20% - Accent5 2 7" xfId="139"/>
+    <cellStyle name="20% - Accent5 3" xfId="140"/>
+    <cellStyle name="20% - Accent5 3 2" xfId="141"/>
+    <cellStyle name="20% - Accent5 3 3" xfId="142"/>
+    <cellStyle name="20% - Accent5 3 4" xfId="143"/>
+    <cellStyle name="20% - Accent5 3 5" xfId="144"/>
+    <cellStyle name="20% - Accent5 3 6" xfId="145"/>
+    <cellStyle name="20% - Accent5 3 7" xfId="146"/>
+    <cellStyle name="20% - Accent5 4" xfId="147"/>
+    <cellStyle name="20% - Accent5 4 2" xfId="148"/>
+    <cellStyle name="20% - Accent5 4 3" xfId="149"/>
+    <cellStyle name="20% - Accent5 4 4" xfId="150"/>
+    <cellStyle name="20% - Accent5 4 5" xfId="151"/>
+    <cellStyle name="20% - Accent5 4 6" xfId="152"/>
+    <cellStyle name="20% - Accent5 4 7" xfId="153"/>
+    <cellStyle name="20% - Accent5 5" xfId="154"/>
+    <cellStyle name="20% - Accent5 5 2" xfId="155"/>
+    <cellStyle name="20% - Accent5 5 3" xfId="156"/>
+    <cellStyle name="20% - Accent5 5 4" xfId="157"/>
+    <cellStyle name="20% - Accent5 5 5" xfId="158"/>
+    <cellStyle name="20% - Accent5 5 6" xfId="159"/>
+    <cellStyle name="20% - Accent5 6" xfId="160"/>
+    <cellStyle name="20% - Accent5 6 2" xfId="161"/>
+    <cellStyle name="20% - Accent5 6 3" xfId="162"/>
+    <cellStyle name="20% - Accent5 6 4" xfId="163"/>
+    <cellStyle name="20% - Accent5 6 5" xfId="164"/>
+    <cellStyle name="20% - Accent5 6 6" xfId="165"/>
+    <cellStyle name="20% - Accent6 2" xfId="166"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="167"/>
+    <cellStyle name="20% - Accent6 2 3" xfId="168"/>
+    <cellStyle name="20% - Accent6 2 4" xfId="169"/>
+    <cellStyle name="20% - Accent6 2 5" xfId="170"/>
+    <cellStyle name="20% - Accent6 2 6" xfId="171"/>
+    <cellStyle name="20% - Accent6 2 7" xfId="172"/>
+    <cellStyle name="20% - Accent6 3" xfId="173"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="174"/>
+    <cellStyle name="20% - Accent6 3 3" xfId="175"/>
+    <cellStyle name="20% - Accent6 3 4" xfId="176"/>
+    <cellStyle name="20% - Accent6 3 5" xfId="177"/>
+    <cellStyle name="20% - Accent6 3 6" xfId="178"/>
+    <cellStyle name="20% - Accent6 3 7" xfId="179"/>
+    <cellStyle name="20% - Accent6 4" xfId="180"/>
+    <cellStyle name="20% - Accent6 4 2" xfId="181"/>
+    <cellStyle name="20% - Accent6 4 3" xfId="182"/>
+    <cellStyle name="20% - Accent6 4 4" xfId="183"/>
+    <cellStyle name="20% - Accent6 4 5" xfId="184"/>
+    <cellStyle name="20% - Accent6 4 6" xfId="185"/>
+    <cellStyle name="20% - Accent6 4 7" xfId="186"/>
+    <cellStyle name="20% - Accent6 5" xfId="187"/>
+    <cellStyle name="20% - Accent6 5 2" xfId="188"/>
+    <cellStyle name="20% - Accent6 5 3" xfId="189"/>
+    <cellStyle name="20% - Accent6 5 4" xfId="190"/>
+    <cellStyle name="20% - Accent6 5 5" xfId="191"/>
+    <cellStyle name="20% - Accent6 5 6" xfId="192"/>
+    <cellStyle name="20% - Accent6 6" xfId="193"/>
+    <cellStyle name="20% - Accent6 6 2" xfId="194"/>
+    <cellStyle name="20% - Accent6 6 3" xfId="195"/>
+    <cellStyle name="20% - Accent6 6 4" xfId="196"/>
+    <cellStyle name="20% - Accent6 6 5" xfId="197"/>
+    <cellStyle name="20% - Accent6 6 6" xfId="198"/>
+    <cellStyle name="40% - Accent1 2" xfId="199"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="200"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="201"/>
+    <cellStyle name="40% - Accent1 2 4" xfId="202"/>
+    <cellStyle name="40% - Accent1 2 5" xfId="203"/>
+    <cellStyle name="40% - Accent1 2 6" xfId="204"/>
+    <cellStyle name="40% - Accent1 2 7" xfId="205"/>
+    <cellStyle name="40% - Accent1 3" xfId="206"/>
+    <cellStyle name="40% - Accent1 3 2" xfId="207"/>
+    <cellStyle name="40% - Accent1 3 3" xfId="208"/>
+    <cellStyle name="40% - Accent1 3 4" xfId="209"/>
+    <cellStyle name="40% - Accent1 3 5" xfId="210"/>
+    <cellStyle name="40% - Accent1 3 6" xfId="211"/>
+    <cellStyle name="40% - Accent1 3 7" xfId="212"/>
+    <cellStyle name="40% - Accent1 4" xfId="213"/>
+    <cellStyle name="40% - Accent1 4 2" xfId="214"/>
+    <cellStyle name="40% - Accent1 4 3" xfId="215"/>
+    <cellStyle name="40% - Accent1 4 4" xfId="216"/>
+    <cellStyle name="40% - Accent1 4 5" xfId="217"/>
+    <cellStyle name="40% - Accent1 4 6" xfId="218"/>
+    <cellStyle name="40% - Accent1 4 7" xfId="219"/>
+    <cellStyle name="40% - Accent1 5" xfId="220"/>
+    <cellStyle name="40% - Accent1 5 2" xfId="221"/>
+    <cellStyle name="40% - Accent1 5 3" xfId="222"/>
+    <cellStyle name="40% - Accent1 5 4" xfId="223"/>
+    <cellStyle name="40% - Accent1 5 5" xfId="224"/>
+    <cellStyle name="40% - Accent1 5 6" xfId="225"/>
+    <cellStyle name="40% - Accent1 6" xfId="226"/>
+    <cellStyle name="40% - Accent1 6 2" xfId="227"/>
+    <cellStyle name="40% - Accent1 6 3" xfId="228"/>
+    <cellStyle name="40% - Accent1 6 4" xfId="229"/>
+    <cellStyle name="40% - Accent1 6 5" xfId="230"/>
+    <cellStyle name="40% - Accent1 6 6" xfId="231"/>
+    <cellStyle name="40% - Accent2 2" xfId="232"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="233"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="234"/>
+    <cellStyle name="40% - Accent2 2 4" xfId="235"/>
+    <cellStyle name="40% - Accent2 2 5" xfId="236"/>
+    <cellStyle name="40% - Accent2 2 6" xfId="237"/>
+    <cellStyle name="40% - Accent2 2 7" xfId="238"/>
+    <cellStyle name="40% - Accent2 3" xfId="239"/>
+    <cellStyle name="40% - Accent2 3 2" xfId="240"/>
+    <cellStyle name="40% - Accent2 3 3" xfId="241"/>
+    <cellStyle name="40% - Accent2 3 4" xfId="242"/>
+    <cellStyle name="40% - Accent2 3 5" xfId="243"/>
+    <cellStyle name="40% - Accent2 3 6" xfId="244"/>
+    <cellStyle name="40% - Accent2 3 7" xfId="245"/>
+    <cellStyle name="40% - Accent2 4" xfId="246"/>
+    <cellStyle name="40% - Accent2 4 2" xfId="247"/>
+    <cellStyle name="40% - Accent2 4 3" xfId="248"/>
+    <cellStyle name="40% - Accent2 4 4" xfId="249"/>
+    <cellStyle name="40% - Accent2 4 5" xfId="250"/>
+    <cellStyle name="40% - Accent2 4 6" xfId="251"/>
+    <cellStyle name="40% - Accent2 4 7" xfId="252"/>
+    <cellStyle name="40% - Accent2 5" xfId="253"/>
+    <cellStyle name="40% - Accent2 5 2" xfId="254"/>
+    <cellStyle name="40% - Accent2 5 3" xfId="255"/>
+    <cellStyle name="40% - Accent2 5 4" xfId="256"/>
+    <cellStyle name="40% - Accent2 5 5" xfId="257"/>
+    <cellStyle name="40% - Accent2 5 6" xfId="258"/>
+    <cellStyle name="40% - Accent2 6" xfId="259"/>
+    <cellStyle name="40% - Accent2 6 2" xfId="260"/>
+    <cellStyle name="40% - Accent2 6 3" xfId="261"/>
+    <cellStyle name="40% - Accent2 6 4" xfId="262"/>
+    <cellStyle name="40% - Accent2 6 5" xfId="263"/>
+    <cellStyle name="40% - Accent2 6 6" xfId="264"/>
+    <cellStyle name="40% - Accent3 2" xfId="265"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="266"/>
+    <cellStyle name="40% - Accent3 2 3" xfId="267"/>
+    <cellStyle name="40% - Accent3 2 4" xfId="268"/>
+    <cellStyle name="40% - Accent3 2 5" xfId="269"/>
+    <cellStyle name="40% - Accent3 2 6" xfId="270"/>
+    <cellStyle name="40% - Accent3 2 7" xfId="271"/>
+    <cellStyle name="40% - Accent3 3" xfId="272"/>
+    <cellStyle name="40% - Accent3 3 2" xfId="273"/>
+    <cellStyle name="40% - Accent3 3 3" xfId="274"/>
+    <cellStyle name="40% - Accent3 3 4" xfId="275"/>
+    <cellStyle name="40% - Accent3 3 5" xfId="276"/>
+    <cellStyle name="40% - Accent3 3 6" xfId="277"/>
+    <cellStyle name="40% - Accent3 3 7" xfId="278"/>
+    <cellStyle name="40% - Accent3 4" xfId="279"/>
+    <cellStyle name="40% - Accent3 4 2" xfId="280"/>
+    <cellStyle name="40% - Accent3 4 3" xfId="281"/>
+    <cellStyle name="40% - Accent3 4 4" xfId="282"/>
+    <cellStyle name="40% - Accent3 4 5" xfId="283"/>
+    <cellStyle name="40% - Accent3 4 6" xfId="284"/>
+    <cellStyle name="40% - Accent3 4 7" xfId="285"/>
+    <cellStyle name="40% - Accent3 5" xfId="286"/>
+    <cellStyle name="40% - Accent3 5 2" xfId="287"/>
+    <cellStyle name="40% - Accent3 5 3" xfId="288"/>
+    <cellStyle name="40% - Accent3 5 4" xfId="289"/>
+    <cellStyle name="40% - Accent3 5 5" xfId="290"/>
+    <cellStyle name="40% - Accent3 5 6" xfId="291"/>
+    <cellStyle name="40% - Accent3 6" xfId="292"/>
+    <cellStyle name="40% - Accent3 6 2" xfId="293"/>
+    <cellStyle name="40% - Accent3 6 3" xfId="294"/>
+    <cellStyle name="40% - Accent3 6 4" xfId="295"/>
+    <cellStyle name="40% - Accent3 6 5" xfId="296"/>
+    <cellStyle name="40% - Accent3 6 6" xfId="297"/>
+    <cellStyle name="40% - Accent4 2" xfId="298"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="299"/>
+    <cellStyle name="40% - Accent4 2 3" xfId="300"/>
+    <cellStyle name="40% - Accent4 2 4" xfId="301"/>
+    <cellStyle name="40% - Accent4 2 5" xfId="302"/>
+    <cellStyle name="40% - Accent4 2 6" xfId="303"/>
+    <cellStyle name="40% - Accent4 2 7" xfId="304"/>
+    <cellStyle name="40% - Accent4 3" xfId="305"/>
+    <cellStyle name="40% - Accent4 3 2" xfId="306"/>
+    <cellStyle name="40% - Accent4 3 3" xfId="307"/>
+    <cellStyle name="40% - Accent4 3 4" xfId="308"/>
+    <cellStyle name="40% - Accent4 3 5" xfId="309"/>
+    <cellStyle name="40% - Accent4 3 6" xfId="310"/>
+    <cellStyle name="40% - Accent4 3 7" xfId="311"/>
+    <cellStyle name="40% - Accent4 4" xfId="312"/>
+    <cellStyle name="40% - Accent4 4 2" xfId="313"/>
+    <cellStyle name="40% - Accent4 4 3" xfId="314"/>
+    <cellStyle name="40% - Accent4 4 4" xfId="315"/>
+    <cellStyle name="40% - Accent4 4 5" xfId="316"/>
+    <cellStyle name="40% - Accent4 4 6" xfId="317"/>
+    <cellStyle name="40% - Accent4 4 7" xfId="318"/>
+    <cellStyle name="40% - Accent4 5" xfId="319"/>
+    <cellStyle name="40% - Accent4 5 2" xfId="320"/>
+    <cellStyle name="40% - Accent4 5 3" xfId="321"/>
+    <cellStyle name="40% - Accent4 5 4" xfId="322"/>
+    <cellStyle name="40% - Accent4 5 5" xfId="323"/>
+    <cellStyle name="40% - Accent4 5 6" xfId="324"/>
+    <cellStyle name="40% - Accent4 6" xfId="325"/>
+    <cellStyle name="40% - Accent4 6 2" xfId="326"/>
+    <cellStyle name="40% - Accent4 6 3" xfId="327"/>
+    <cellStyle name="40% - Accent4 6 4" xfId="328"/>
+    <cellStyle name="40% - Accent4 6 5" xfId="329"/>
+    <cellStyle name="40% - Accent4 6 6" xfId="330"/>
+    <cellStyle name="40% - Accent5 2" xfId="331"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="332"/>
+    <cellStyle name="40% - Accent5 2 3" xfId="333"/>
+    <cellStyle name="40% - Accent5 2 4" xfId="334"/>
+    <cellStyle name="40% - Accent5 2 5" xfId="335"/>
+    <cellStyle name="40% - Accent5 2 6" xfId="336"/>
+    <cellStyle name="40% - Accent5 2 7" xfId="337"/>
+    <cellStyle name="40% - Accent5 3" xfId="338"/>
+    <cellStyle name="40% - Accent5 3 2" xfId="339"/>
+    <cellStyle name="40% - Accent5 3 3" xfId="340"/>
+    <cellStyle name="40% - Accent5 3 4" xfId="341"/>
+    <cellStyle name="40% - Accent5 3 5" xfId="342"/>
+    <cellStyle name="40% - Accent5 3 6" xfId="343"/>
+    <cellStyle name="40% - Accent5 3 7" xfId="344"/>
+    <cellStyle name="40% - Accent5 4" xfId="345"/>
+    <cellStyle name="40% - Accent5 4 2" xfId="346"/>
+    <cellStyle name="40% - Accent5 4 3" xfId="347"/>
+    <cellStyle name="40% - Accent5 4 4" xfId="348"/>
+    <cellStyle name="40% - Accent5 4 5" xfId="349"/>
+    <cellStyle name="40% - Accent5 4 6" xfId="350"/>
+    <cellStyle name="40% - Accent5 4 7" xfId="351"/>
+    <cellStyle name="40% - Accent5 5" xfId="352"/>
+    <cellStyle name="40% - Accent5 5 2" xfId="353"/>
+    <cellStyle name="40% - Accent5 5 3" xfId="354"/>
+    <cellStyle name="40% - Accent5 5 4" xfId="355"/>
+    <cellStyle name="40% - Accent5 5 5" xfId="356"/>
+    <cellStyle name="40% - Accent5 5 6" xfId="357"/>
+    <cellStyle name="40% - Accent5 6" xfId="358"/>
+    <cellStyle name="40% - Accent5 6 2" xfId="359"/>
+    <cellStyle name="40% - Accent5 6 3" xfId="360"/>
+    <cellStyle name="40% - Accent5 6 4" xfId="361"/>
+    <cellStyle name="40% - Accent5 6 5" xfId="362"/>
+    <cellStyle name="40% - Accent5 6 6" xfId="363"/>
+    <cellStyle name="40% - Accent6 2" xfId="364"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="365"/>
+    <cellStyle name="40% - Accent6 2 3" xfId="366"/>
+    <cellStyle name="40% - Accent6 2 4" xfId="367"/>
+    <cellStyle name="40% - Accent6 2 5" xfId="368"/>
+    <cellStyle name="40% - Accent6 2 6" xfId="369"/>
+    <cellStyle name="40% - Accent6 2 7" xfId="370"/>
+    <cellStyle name="40% - Accent6 3" xfId="371"/>
+    <cellStyle name="40% - Accent6 3 2" xfId="372"/>
+    <cellStyle name="40% - Accent6 3 3" xfId="373"/>
+    <cellStyle name="40% - Accent6 3 4" xfId="374"/>
+    <cellStyle name="40% - Accent6 3 5" xfId="375"/>
+    <cellStyle name="40% - Accent6 3 6" xfId="376"/>
+    <cellStyle name="40% - Accent6 3 7" xfId="377"/>
+    <cellStyle name="40% - Accent6 4" xfId="378"/>
+    <cellStyle name="40% - Accent6 4 2" xfId="379"/>
+    <cellStyle name="40% - Accent6 4 3" xfId="380"/>
+    <cellStyle name="40% - Accent6 4 4" xfId="381"/>
+    <cellStyle name="40% - Accent6 4 5" xfId="382"/>
+    <cellStyle name="40% - Accent6 4 6" xfId="383"/>
+    <cellStyle name="40% - Accent6 4 7" xfId="384"/>
+    <cellStyle name="40% - Accent6 5" xfId="385"/>
+    <cellStyle name="40% - Accent6 5 2" xfId="386"/>
+    <cellStyle name="40% - Accent6 5 3" xfId="387"/>
+    <cellStyle name="40% - Accent6 5 4" xfId="388"/>
+    <cellStyle name="40% - Accent6 5 5" xfId="389"/>
+    <cellStyle name="40% - Accent6 5 6" xfId="390"/>
+    <cellStyle name="40% - Accent6 6" xfId="391"/>
+    <cellStyle name="40% - Accent6 6 2" xfId="392"/>
+    <cellStyle name="40% - Accent6 6 3" xfId="393"/>
+    <cellStyle name="40% - Accent6 6 4" xfId="394"/>
+    <cellStyle name="40% - Accent6 6 5" xfId="395"/>
+    <cellStyle name="40% - Accent6 6 6" xfId="396"/>
+    <cellStyle name="60% - Accent1 2" xfId="397"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="398"/>
+    <cellStyle name="60% - Accent1 2 3" xfId="399"/>
+    <cellStyle name="60% - Accent1 2 4" xfId="400"/>
+    <cellStyle name="60% - Accent1 2 5" xfId="401"/>
+    <cellStyle name="60% - Accent1 2 6" xfId="402"/>
+    <cellStyle name="60% - Accent1 2 7" xfId="403"/>
+    <cellStyle name="60% - Accent1 3" xfId="404"/>
+    <cellStyle name="60% - Accent1 3 2" xfId="405"/>
+    <cellStyle name="60% - Accent1 3 3" xfId="406"/>
+    <cellStyle name="60% - Accent1 3 4" xfId="407"/>
+    <cellStyle name="60% - Accent1 3 5" xfId="408"/>
+    <cellStyle name="60% - Accent1 3 6" xfId="409"/>
+    <cellStyle name="60% - Accent1 3 7" xfId="410"/>
+    <cellStyle name="60% - Accent1 4" xfId="411"/>
+    <cellStyle name="60% - Accent1 4 2" xfId="412"/>
+    <cellStyle name="60% - Accent1 4 3" xfId="413"/>
+    <cellStyle name="60% - Accent1 4 4" xfId="414"/>
+    <cellStyle name="60% - Accent1 4 5" xfId="415"/>
+    <cellStyle name="60% - Accent1 4 6" xfId="416"/>
+    <cellStyle name="60% - Accent1 4 7" xfId="417"/>
+    <cellStyle name="60% - Accent1 5" xfId="418"/>
+    <cellStyle name="60% - Accent1 5 2" xfId="419"/>
+    <cellStyle name="60% - Accent1 5 3" xfId="420"/>
+    <cellStyle name="60% - Accent1 5 4" xfId="421"/>
+    <cellStyle name="60% - Accent1 5 5" xfId="422"/>
+    <cellStyle name="60% - Accent1 5 6" xfId="423"/>
+    <cellStyle name="60% - Accent1 6" xfId="424"/>
+    <cellStyle name="60% - Accent1 6 2" xfId="425"/>
+    <cellStyle name="60% - Accent1 6 3" xfId="426"/>
+    <cellStyle name="60% - Accent1 6 4" xfId="427"/>
+    <cellStyle name="60% - Accent1 6 5" xfId="428"/>
+    <cellStyle name="60% - Accent1 6 6" xfId="429"/>
+    <cellStyle name="60% - Accent2 2" xfId="430"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="431"/>
+    <cellStyle name="60% - Accent2 2 3" xfId="432"/>
+    <cellStyle name="60% - Accent2 2 4" xfId="433"/>
+    <cellStyle name="60% - Accent2 2 5" xfId="434"/>
+    <cellStyle name="60% - Accent2 2 6" xfId="435"/>
+    <cellStyle name="60% - Accent2 2 7" xfId="436"/>
+    <cellStyle name="60% - Accent2 3" xfId="437"/>
+    <cellStyle name="60% - Accent2 3 2" xfId="438"/>
+    <cellStyle name="60% - Accent2 3 3" xfId="439"/>
+    <cellStyle name="60% - Accent2 3 4" xfId="440"/>
+    <cellStyle name="60% - Accent2 3 5" xfId="441"/>
+    <cellStyle name="60% - Accent2 3 6" xfId="442"/>
+    <cellStyle name="60% - Accent2 3 7" xfId="443"/>
+    <cellStyle name="60% - Accent2 4" xfId="444"/>
+    <cellStyle name="60% - Accent2 4 2" xfId="445"/>
+    <cellStyle name="60% - Accent2 4 3" xfId="446"/>
+    <cellStyle name="60% - Accent2 4 4" xfId="447"/>
+    <cellStyle name="60% - Accent2 4 5" xfId="448"/>
+    <cellStyle name="60% - Accent2 4 6" xfId="449"/>
+    <cellStyle name="60% - Accent2 4 7" xfId="450"/>
+    <cellStyle name="60% - Accent2 5" xfId="451"/>
+    <cellStyle name="60% - Accent2 5 2" xfId="452"/>
+    <cellStyle name="60% - Accent2 5 3" xfId="453"/>
+    <cellStyle name="60% - Accent2 5 4" xfId="454"/>
+    <cellStyle name="60% - Accent2 5 5" xfId="455"/>
+    <cellStyle name="60% - Accent2 5 6" xfId="456"/>
+    <cellStyle name="60% - Accent2 6" xfId="457"/>
+    <cellStyle name="60% - Accent2 6 2" xfId="458"/>
+    <cellStyle name="60% - Accent2 6 3" xfId="459"/>
+    <cellStyle name="60% - Accent2 6 4" xfId="460"/>
+    <cellStyle name="60% - Accent2 6 5" xfId="461"/>
+    <cellStyle name="60% - Accent2 6 6" xfId="462"/>
+    <cellStyle name="60% - Accent3 2" xfId="463"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="464"/>
+    <cellStyle name="60% - Accent3 2 3" xfId="465"/>
+    <cellStyle name="60% - Accent3 2 4" xfId="466"/>
+    <cellStyle name="60% - Accent3 2 5" xfId="467"/>
+    <cellStyle name="60% - Accent3 2 6" xfId="468"/>
+    <cellStyle name="60% - Accent3 2 7" xfId="469"/>
+    <cellStyle name="60% - Accent3 3" xfId="470"/>
+    <cellStyle name="60% - Accent3 3 2" xfId="471"/>
+    <cellStyle name="60% - Accent3 3 3" xfId="472"/>
+    <cellStyle name="60% - Accent3 3 4" xfId="473"/>
+    <cellStyle name="60% - Accent3 3 5" xfId="474"/>
+    <cellStyle name="60% - Accent3 3 6" xfId="475"/>
+    <cellStyle name="60% - Accent3 3 7" xfId="476"/>
+    <cellStyle name="60% - Accent3 4" xfId="477"/>
+    <cellStyle name="60% - Accent3 4 2" xfId="478"/>
+    <cellStyle name="60% - Accent3 4 3" xfId="479"/>
+    <cellStyle name="60% - Accent3 4 4" xfId="480"/>
+    <cellStyle name="60% - Accent3 4 5" xfId="481"/>
+    <cellStyle name="60% - Accent3 4 6" xfId="482"/>
+    <cellStyle name="60% - Accent3 4 7" xfId="483"/>
+    <cellStyle name="60% - Accent3 5" xfId="484"/>
+    <cellStyle name="60% - Accent3 5 2" xfId="485"/>
+    <cellStyle name="60% - Accent3 5 3" xfId="486"/>
+    <cellStyle name="60% - Accent3 5 4" xfId="487"/>
+    <cellStyle name="60% - Accent3 5 5" xfId="488"/>
+    <cellStyle name="60% - Accent3 5 6" xfId="489"/>
+    <cellStyle name="60% - Accent3 6" xfId="490"/>
+    <cellStyle name="60% - Accent3 6 2" xfId="491"/>
+    <cellStyle name="60% - Accent3 6 3" xfId="492"/>
+    <cellStyle name="60% - Accent3 6 4" xfId="493"/>
+    <cellStyle name="60% - Accent3 6 5" xfId="494"/>
+    <cellStyle name="60% - Accent3 6 6" xfId="495"/>
+    <cellStyle name="60% - Accent4 2" xfId="496"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="497"/>
+    <cellStyle name="60% - Accent4 2 3" xfId="498"/>
+    <cellStyle name="60% - Accent4 2 4" xfId="499"/>
+    <cellStyle name="60% - Accent4 2 5" xfId="500"/>
+    <cellStyle name="60% - Accent4 2 6" xfId="501"/>
+    <cellStyle name="60% - Accent4 2 7" xfId="502"/>
+    <cellStyle name="60% - Accent4 3" xfId="503"/>
+    <cellStyle name="60% - Accent4 3 2" xfId="504"/>
+    <cellStyle name="60% - Accent4 3 3" xfId="505"/>
+    <cellStyle name="60% - Accent4 3 4" xfId="506"/>
+    <cellStyle name="60% - Accent4 3 5" xfId="507"/>
+    <cellStyle name="60% - Accent4 3 6" xfId="508"/>
+    <cellStyle name="60% - Accent4 3 7" xfId="509"/>
+    <cellStyle name="60% - Accent4 4" xfId="510"/>
+    <cellStyle name="60% - Accent4 4 2" xfId="511"/>
+    <cellStyle name="60% - Accent4 4 3" xfId="512"/>
+    <cellStyle name="60% - Accent4 4 4" xfId="513"/>
+    <cellStyle name="60% - Accent4 4 5" xfId="514"/>
+    <cellStyle name="60% - Accent4 4 6" xfId="515"/>
+    <cellStyle name="60% - Accent4 4 7" xfId="516"/>
+    <cellStyle name="60% - Accent4 5" xfId="517"/>
+    <cellStyle name="60% - Accent4 5 2" xfId="518"/>
+    <cellStyle name="60% - Accent4 5 3" xfId="519"/>
+    <cellStyle name="60% - Accent4 5 4" xfId="520"/>
+    <cellStyle name="60% - Accent4 5 5" xfId="521"/>
+    <cellStyle name="60% - Accent4 5 6" xfId="522"/>
+    <cellStyle name="60% - Accent4 6" xfId="523"/>
+    <cellStyle name="60% - Accent4 6 2" xfId="524"/>
+    <cellStyle name="60% - Accent4 6 3" xfId="525"/>
+    <cellStyle name="60% - Accent4 6 4" xfId="526"/>
+    <cellStyle name="60% - Accent4 6 5" xfId="527"/>
+    <cellStyle name="60% - Accent4 6 6" xfId="528"/>
+    <cellStyle name="60% - Accent5 2" xfId="529"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="530"/>
+    <cellStyle name="60% - Accent5 2 3" xfId="531"/>
+    <cellStyle name="60% - Accent5 2 4" xfId="532"/>
+    <cellStyle name="60% - Accent5 2 5" xfId="533"/>
+    <cellStyle name="60% - Accent5 2 6" xfId="534"/>
+    <cellStyle name="60% - Accent5 2 7" xfId="535"/>
+    <cellStyle name="60% - Accent5 3" xfId="536"/>
+    <cellStyle name="60% - Accent5 3 2" xfId="537"/>
+    <cellStyle name="60% - Accent5 3 3" xfId="538"/>
+    <cellStyle name="60% - Accent5 3 4" xfId="539"/>
+    <cellStyle name="60% - Accent5 3 5" xfId="540"/>
+    <cellStyle name="60% - Accent5 3 6" xfId="541"/>
+    <cellStyle name="60% - Accent5 3 7" xfId="542"/>
+    <cellStyle name="60% - Accent5 4" xfId="543"/>
+    <cellStyle name="60% - Accent5 4 2" xfId="544"/>
+    <cellStyle name="60% - Accent5 4 3" xfId="545"/>
+    <cellStyle name="60% - Accent5 4 4" xfId="546"/>
+    <cellStyle name="60% - Accent5 4 5" xfId="547"/>
+    <cellStyle name="60% - Accent5 4 6" xfId="548"/>
+    <cellStyle name="60% - Accent5 4 7" xfId="549"/>
+    <cellStyle name="60% - Accent5 5" xfId="550"/>
+    <cellStyle name="60% - Accent5 5 2" xfId="551"/>
+    <cellStyle name="60% - Accent5 5 3" xfId="552"/>
+    <cellStyle name="60% - Accent5 5 4" xfId="553"/>
+    <cellStyle name="60% - Accent5 5 5" xfId="554"/>
+    <cellStyle name="60% - Accent5 5 6" xfId="555"/>
+    <cellStyle name="60% - Accent5 6" xfId="556"/>
+    <cellStyle name="60% - Accent5 6 2" xfId="557"/>
+    <cellStyle name="60% - Accent5 6 3" xfId="558"/>
+    <cellStyle name="60% - Accent5 6 4" xfId="559"/>
+    <cellStyle name="60% - Accent5 6 5" xfId="560"/>
+    <cellStyle name="60% - Accent5 6 6" xfId="561"/>
+    <cellStyle name="60% - Accent6 2" xfId="562"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="563"/>
+    <cellStyle name="60% - Accent6 2 3" xfId="564"/>
+    <cellStyle name="60% - Accent6 2 4" xfId="565"/>
+    <cellStyle name="60% - Accent6 2 5" xfId="566"/>
+    <cellStyle name="60% - Accent6 2 6" xfId="567"/>
+    <cellStyle name="60% - Accent6 2 7" xfId="568"/>
+    <cellStyle name="60% - Accent6 3" xfId="569"/>
+    <cellStyle name="60% - Accent6 3 2" xfId="570"/>
+    <cellStyle name="60% - Accent6 3 3" xfId="571"/>
+    <cellStyle name="60% - Accent6 3 4" xfId="572"/>
+    <cellStyle name="60% - Accent6 3 5" xfId="573"/>
+    <cellStyle name="60% - Accent6 3 6" xfId="574"/>
+    <cellStyle name="60% - Accent6 3 7" xfId="575"/>
+    <cellStyle name="60% - Accent6 4" xfId="576"/>
+    <cellStyle name="60% - Accent6 4 2" xfId="577"/>
+    <cellStyle name="60% - Accent6 4 3" xfId="578"/>
+    <cellStyle name="60% - Accent6 4 4" xfId="579"/>
+    <cellStyle name="60% - Accent6 4 5" xfId="580"/>
+    <cellStyle name="60% - Accent6 4 6" xfId="581"/>
+    <cellStyle name="60% - Accent6 4 7" xfId="582"/>
+    <cellStyle name="60% - Accent6 5" xfId="583"/>
+    <cellStyle name="60% - Accent6 5 2" xfId="584"/>
+    <cellStyle name="60% - Accent6 5 3" xfId="585"/>
+    <cellStyle name="60% - Accent6 5 4" xfId="586"/>
+    <cellStyle name="60% - Accent6 5 5" xfId="587"/>
+    <cellStyle name="60% - Accent6 5 6" xfId="588"/>
+    <cellStyle name="60% - Accent6 6" xfId="589"/>
+    <cellStyle name="60% - Accent6 6 2" xfId="590"/>
+    <cellStyle name="60% - Accent6 6 3" xfId="591"/>
+    <cellStyle name="60% - Accent6 6 4" xfId="592"/>
+    <cellStyle name="60% - Accent6 6 5" xfId="593"/>
+    <cellStyle name="60% - Accent6 6 6" xfId="594"/>
+    <cellStyle name="Accent1 2" xfId="595"/>
+    <cellStyle name="Accent1 2 2" xfId="596"/>
+    <cellStyle name="Accent1 2 3" xfId="597"/>
+    <cellStyle name="Accent1 2 4" xfId="598"/>
+    <cellStyle name="Accent1 2 5" xfId="599"/>
+    <cellStyle name="Accent1 2 6" xfId="600"/>
+    <cellStyle name="Accent1 2 7" xfId="601"/>
+    <cellStyle name="Accent1 3" xfId="602"/>
+    <cellStyle name="Accent1 3 2" xfId="603"/>
+    <cellStyle name="Accent1 3 3" xfId="604"/>
+    <cellStyle name="Accent1 3 4" xfId="605"/>
+    <cellStyle name="Accent1 3 5" xfId="606"/>
+    <cellStyle name="Accent1 3 6" xfId="607"/>
+    <cellStyle name="Accent1 3 7" xfId="608"/>
+    <cellStyle name="Accent1 4" xfId="609"/>
+    <cellStyle name="Accent1 4 2" xfId="610"/>
+    <cellStyle name="Accent1 4 3" xfId="611"/>
+    <cellStyle name="Accent1 4 4" xfId="612"/>
+    <cellStyle name="Accent1 4 5" xfId="613"/>
+    <cellStyle name="Accent1 4 6" xfId="614"/>
+    <cellStyle name="Accent1 4 7" xfId="615"/>
+    <cellStyle name="Accent1 5" xfId="616"/>
+    <cellStyle name="Accent1 5 2" xfId="617"/>
+    <cellStyle name="Accent1 5 3" xfId="618"/>
+    <cellStyle name="Accent1 5 4" xfId="619"/>
+    <cellStyle name="Accent1 5 5" xfId="620"/>
+    <cellStyle name="Accent1 5 6" xfId="621"/>
+    <cellStyle name="Accent1 6" xfId="622"/>
+    <cellStyle name="Accent1 6 2" xfId="623"/>
+    <cellStyle name="Accent1 6 3" xfId="624"/>
+    <cellStyle name="Accent1 6 4" xfId="625"/>
+    <cellStyle name="Accent1 6 5" xfId="626"/>
+    <cellStyle name="Accent1 6 6" xfId="627"/>
+    <cellStyle name="Accent2 2" xfId="628"/>
+    <cellStyle name="Accent2 2 2" xfId="629"/>
+    <cellStyle name="Accent2 2 3" xfId="630"/>
+    <cellStyle name="Accent2 2 4" xfId="631"/>
+    <cellStyle name="Accent2 2 5" xfId="632"/>
+    <cellStyle name="Accent2 2 6" xfId="633"/>
+    <cellStyle name="Accent2 2 7" xfId="634"/>
+    <cellStyle name="Accent2 3" xfId="635"/>
+    <cellStyle name="Accent2 3 2" xfId="636"/>
+    <cellStyle name="Accent2 3 3" xfId="637"/>
+    <cellStyle name="Accent2 3 4" xfId="638"/>
+    <cellStyle name="Accent2 3 5" xfId="639"/>
+    <cellStyle name="Accent2 3 6" xfId="640"/>
+    <cellStyle name="Accent2 3 7" xfId="641"/>
+    <cellStyle name="Accent2 4" xfId="642"/>
+    <cellStyle name="Accent2 4 2" xfId="643"/>
+    <cellStyle name="Accent2 4 3" xfId="644"/>
+    <cellStyle name="Accent2 4 4" xfId="645"/>
+    <cellStyle name="Accent2 4 5" xfId="646"/>
+    <cellStyle name="Accent2 4 6" xfId="647"/>
+    <cellStyle name="Accent2 4 7" xfId="648"/>
+    <cellStyle name="Accent2 5" xfId="649"/>
+    <cellStyle name="Accent2 5 2" xfId="650"/>
+    <cellStyle name="Accent2 5 3" xfId="651"/>
+    <cellStyle name="Accent2 5 4" xfId="652"/>
+    <cellStyle name="Accent2 5 5" xfId="653"/>
+    <cellStyle name="Accent2 5 6" xfId="654"/>
+    <cellStyle name="Accent2 6" xfId="655"/>
+    <cellStyle name="Accent2 6 2" xfId="656"/>
+    <cellStyle name="Accent2 6 3" xfId="657"/>
+    <cellStyle name="Accent2 6 4" xfId="658"/>
+    <cellStyle name="Accent2 6 5" xfId="659"/>
+    <cellStyle name="Accent2 6 6" xfId="660"/>
+    <cellStyle name="Accent3 2" xfId="661"/>
+    <cellStyle name="Accent3 2 2" xfId="662"/>
+    <cellStyle name="Accent3 2 3" xfId="663"/>
+    <cellStyle name="Accent3 2 4" xfId="664"/>
+    <cellStyle name="Accent3 2 5" xfId="665"/>
+    <cellStyle name="Accent3 2 6" xfId="666"/>
+    <cellStyle name="Accent3 2 7" xfId="667"/>
+    <cellStyle name="Accent3 3" xfId="668"/>
+    <cellStyle name="Accent3 3 2" xfId="669"/>
+    <cellStyle name="Accent3 3 3" xfId="670"/>
+    <cellStyle name="Accent3 3 4" xfId="671"/>
+    <cellStyle name="Accent3 3 5" xfId="672"/>
+    <cellStyle name="Accent3 3 6" xfId="673"/>
+    <cellStyle name="Accent3 3 7" xfId="674"/>
+    <cellStyle name="Accent3 4" xfId="675"/>
+    <cellStyle name="Accent3 4 2" xfId="676"/>
+    <cellStyle name="Accent3 4 3" xfId="677"/>
+    <cellStyle name="Accent3 4 4" xfId="678"/>
+    <cellStyle name="Accent3 4 5" xfId="679"/>
+    <cellStyle name="Accent3 4 6" xfId="680"/>
+    <cellStyle name="Accent3 4 7" xfId="681"/>
+    <cellStyle name="Accent3 5" xfId="682"/>
+    <cellStyle name="Accent3 5 2" xfId="683"/>
+    <cellStyle name="Accent3 5 3" xfId="684"/>
+    <cellStyle name="Accent3 5 4" xfId="685"/>
+    <cellStyle name="Accent3 5 5" xfId="686"/>
+    <cellStyle name="Accent3 5 6" xfId="687"/>
+    <cellStyle name="Accent3 6" xfId="688"/>
+    <cellStyle name="Accent3 6 2" xfId="689"/>
+    <cellStyle name="Accent3 6 3" xfId="690"/>
+    <cellStyle name="Accent3 6 4" xfId="691"/>
+    <cellStyle name="Accent3 6 5" xfId="692"/>
+    <cellStyle name="Accent3 6 6" xfId="693"/>
+    <cellStyle name="Accent4 2" xfId="694"/>
+    <cellStyle name="Accent4 2 2" xfId="695"/>
+    <cellStyle name="Accent4 2 3" xfId="696"/>
+    <cellStyle name="Accent4 2 4" xfId="697"/>
+    <cellStyle name="Accent4 2 5" xfId="698"/>
+    <cellStyle name="Accent4 2 6" xfId="699"/>
+    <cellStyle name="Accent4 2 7" xfId="700"/>
+    <cellStyle name="Accent4 3" xfId="701"/>
+    <cellStyle name="Accent4 3 2" xfId="702"/>
+    <cellStyle name="Accent4 3 3" xfId="703"/>
+    <cellStyle name="Accent4 3 4" xfId="704"/>
+    <cellStyle name="Accent4 3 5" xfId="705"/>
+    <cellStyle name="Accent4 3 6" xfId="706"/>
+    <cellStyle name="Accent4 3 7" xfId="707"/>
+    <cellStyle name="Accent4 4" xfId="708"/>
+    <cellStyle name="Accent4 4 2" xfId="709"/>
+    <cellStyle name="Accent4 4 3" xfId="710"/>
+    <cellStyle name="Accent4 4 4" xfId="711"/>
+    <cellStyle name="Accent4 4 5" xfId="712"/>
+    <cellStyle name="Accent4 4 6" xfId="713"/>
+    <cellStyle name="Accent4 4 7" xfId="714"/>
+    <cellStyle name="Accent4 5" xfId="715"/>
+    <cellStyle name="Accent4 5 2" xfId="716"/>
+    <cellStyle name="Accent4 5 3" xfId="717"/>
+    <cellStyle name="Accent4 5 4" xfId="718"/>
+    <cellStyle name="Accent4 5 5" xfId="719"/>
+    <cellStyle name="Accent4 5 6" xfId="720"/>
+    <cellStyle name="Accent4 6" xfId="721"/>
+    <cellStyle name="Accent4 6 2" xfId="722"/>
+    <cellStyle name="Accent4 6 3" xfId="723"/>
+    <cellStyle name="Accent4 6 4" xfId="724"/>
+    <cellStyle name="Accent4 6 5" xfId="725"/>
+    <cellStyle name="Accent4 6 6" xfId="726"/>
+    <cellStyle name="Accent5 2" xfId="727"/>
+    <cellStyle name="Accent5 2 2" xfId="728"/>
+    <cellStyle name="Accent5 2 3" xfId="729"/>
+    <cellStyle name="Accent5 2 4" xfId="730"/>
+    <cellStyle name="Accent5 2 5" xfId="731"/>
+    <cellStyle name="Accent5 2 6" xfId="732"/>
+    <cellStyle name="Accent5 2 7" xfId="733"/>
+    <cellStyle name="Accent5 3" xfId="734"/>
+    <cellStyle name="Accent5 3 2" xfId="735"/>
+    <cellStyle name="Accent5 3 3" xfId="736"/>
+    <cellStyle name="Accent5 3 4" xfId="737"/>
+    <cellStyle name="Accent5 3 5" xfId="738"/>
+    <cellStyle name="Accent5 3 6" xfId="739"/>
+    <cellStyle name="Accent5 3 7" xfId="740"/>
+    <cellStyle name="Accent5 4" xfId="741"/>
+    <cellStyle name="Accent5 4 2" xfId="742"/>
+    <cellStyle name="Accent5 4 3" xfId="743"/>
+    <cellStyle name="Accent5 4 4" xfId="744"/>
+    <cellStyle name="Accent5 4 5" xfId="745"/>
+    <cellStyle name="Accent5 4 6" xfId="746"/>
+    <cellStyle name="Accent5 4 7" xfId="747"/>
+    <cellStyle name="Accent5 5" xfId="748"/>
+    <cellStyle name="Accent5 5 2" xfId="749"/>
+    <cellStyle name="Accent5 5 3" xfId="750"/>
+    <cellStyle name="Accent5 5 4" xfId="751"/>
+    <cellStyle name="Accent5 5 5" xfId="752"/>
+    <cellStyle name="Accent5 5 6" xfId="753"/>
+    <cellStyle name="Accent5 6" xfId="754"/>
+    <cellStyle name="Accent5 6 2" xfId="755"/>
+    <cellStyle name="Accent5 6 3" xfId="756"/>
+    <cellStyle name="Accent5 6 4" xfId="757"/>
+    <cellStyle name="Accent5 6 5" xfId="758"/>
+    <cellStyle name="Accent5 6 6" xfId="759"/>
+    <cellStyle name="Accent6 2" xfId="760"/>
+    <cellStyle name="Accent6 2 2" xfId="761"/>
+    <cellStyle name="Accent6 2 3" xfId="762"/>
+    <cellStyle name="Accent6 2 4" xfId="763"/>
+    <cellStyle name="Accent6 2 5" xfId="764"/>
+    <cellStyle name="Accent6 2 6" xfId="765"/>
+    <cellStyle name="Accent6 2 7" xfId="766"/>
+    <cellStyle name="Accent6 3" xfId="767"/>
+    <cellStyle name="Accent6 3 2" xfId="768"/>
+    <cellStyle name="Accent6 3 3" xfId="769"/>
+    <cellStyle name="Accent6 3 4" xfId="770"/>
+    <cellStyle name="Accent6 3 5" xfId="771"/>
+    <cellStyle name="Accent6 3 6" xfId="772"/>
+    <cellStyle name="Accent6 3 7" xfId="773"/>
+    <cellStyle name="Accent6 4" xfId="774"/>
+    <cellStyle name="Accent6 4 2" xfId="775"/>
+    <cellStyle name="Accent6 4 3" xfId="776"/>
+    <cellStyle name="Accent6 4 4" xfId="777"/>
+    <cellStyle name="Accent6 4 5" xfId="778"/>
+    <cellStyle name="Accent6 4 6" xfId="779"/>
+    <cellStyle name="Accent6 4 7" xfId="780"/>
+    <cellStyle name="Accent6 5" xfId="781"/>
+    <cellStyle name="Accent6 5 2" xfId="782"/>
+    <cellStyle name="Accent6 5 3" xfId="783"/>
+    <cellStyle name="Accent6 5 4" xfId="784"/>
+    <cellStyle name="Accent6 5 5" xfId="785"/>
+    <cellStyle name="Accent6 5 6" xfId="786"/>
+    <cellStyle name="Accent6 6" xfId="787"/>
+    <cellStyle name="Accent6 6 2" xfId="788"/>
+    <cellStyle name="Accent6 6 3" xfId="789"/>
+    <cellStyle name="Accent6 6 4" xfId="790"/>
+    <cellStyle name="Accent6 6 5" xfId="791"/>
+    <cellStyle name="Accent6 6 6" xfId="792"/>
+    <cellStyle name="Bad 2" xfId="793"/>
+    <cellStyle name="Bad 2 2" xfId="794"/>
+    <cellStyle name="Bad 2 3" xfId="795"/>
+    <cellStyle name="Bad 2 4" xfId="796"/>
+    <cellStyle name="Bad 2 5" xfId="797"/>
+    <cellStyle name="Bad 2 6" xfId="798"/>
+    <cellStyle name="Bad 2 7" xfId="799"/>
+    <cellStyle name="Bad 3" xfId="800"/>
+    <cellStyle name="Bad 3 2" xfId="801"/>
+    <cellStyle name="Bad 3 3" xfId="802"/>
+    <cellStyle name="Bad 3 4" xfId="803"/>
+    <cellStyle name="Bad 3 5" xfId="804"/>
+    <cellStyle name="Bad 3 6" xfId="805"/>
+    <cellStyle name="Bad 3 7" xfId="806"/>
+    <cellStyle name="Bad 4" xfId="807"/>
+    <cellStyle name="Bad 4 2" xfId="808"/>
+    <cellStyle name="Bad 4 3" xfId="809"/>
+    <cellStyle name="Bad 4 4" xfId="810"/>
+    <cellStyle name="Bad 4 5" xfId="811"/>
+    <cellStyle name="Bad 4 6" xfId="812"/>
+    <cellStyle name="Bad 4 7" xfId="813"/>
+    <cellStyle name="Bad 5" xfId="814"/>
+    <cellStyle name="Bad 5 2" xfId="815"/>
+    <cellStyle name="Bad 5 3" xfId="816"/>
+    <cellStyle name="Bad 5 4" xfId="817"/>
+    <cellStyle name="Bad 5 5" xfId="818"/>
+    <cellStyle name="Bad 5 6" xfId="819"/>
+    <cellStyle name="Bad 6" xfId="820"/>
+    <cellStyle name="Bad 6 2" xfId="821"/>
+    <cellStyle name="Bad 6 3" xfId="822"/>
+    <cellStyle name="Bad 6 4" xfId="823"/>
+    <cellStyle name="Bad 6 5" xfId="824"/>
+    <cellStyle name="Bad 6 6" xfId="825"/>
+    <cellStyle name="Calculation 2" xfId="826"/>
+    <cellStyle name="Calculation 2 2" xfId="827"/>
+    <cellStyle name="Calculation 2 3" xfId="828"/>
+    <cellStyle name="Calculation 2 4" xfId="829"/>
+    <cellStyle name="Calculation 2 5" xfId="830"/>
+    <cellStyle name="Calculation 2 6" xfId="831"/>
+    <cellStyle name="Calculation 2 7" xfId="832"/>
+    <cellStyle name="Calculation 3" xfId="833"/>
+    <cellStyle name="Calculation 3 2" xfId="834"/>
+    <cellStyle name="Calculation 3 3" xfId="835"/>
+    <cellStyle name="Calculation 3 4" xfId="836"/>
+    <cellStyle name="Calculation 3 5" xfId="837"/>
+    <cellStyle name="Calculation 3 6" xfId="838"/>
+    <cellStyle name="Calculation 3 7" xfId="839"/>
+    <cellStyle name="Calculation 4" xfId="840"/>
+    <cellStyle name="Calculation 4 2" xfId="841"/>
+    <cellStyle name="Calculation 4 3" xfId="842"/>
+    <cellStyle name="Calculation 4 4" xfId="843"/>
+    <cellStyle name="Calculation 4 5" xfId="844"/>
+    <cellStyle name="Calculation 4 6" xfId="845"/>
+    <cellStyle name="Calculation 4 7" xfId="846"/>
+    <cellStyle name="Calculation 5" xfId="847"/>
+    <cellStyle name="Calculation 5 2" xfId="848"/>
+    <cellStyle name="Calculation 5 3" xfId="849"/>
+    <cellStyle name="Calculation 5 4" xfId="850"/>
+    <cellStyle name="Calculation 5 5" xfId="851"/>
+    <cellStyle name="Calculation 5 6" xfId="852"/>
+    <cellStyle name="Calculation 6" xfId="853"/>
+    <cellStyle name="Calculation 6 2" xfId="854"/>
+    <cellStyle name="Calculation 6 3" xfId="855"/>
+    <cellStyle name="Calculation 6 4" xfId="856"/>
+    <cellStyle name="Calculation 6 5" xfId="857"/>
+    <cellStyle name="Calculation 6 6" xfId="858"/>
+    <cellStyle name="Check Cell 2" xfId="859"/>
+    <cellStyle name="Check Cell 2 2" xfId="860"/>
+    <cellStyle name="Check Cell 2 3" xfId="861"/>
+    <cellStyle name="Check Cell 2 4" xfId="862"/>
+    <cellStyle name="Check Cell 2 5" xfId="863"/>
+    <cellStyle name="Check Cell 2 6" xfId="864"/>
+    <cellStyle name="Check Cell 2 7" xfId="865"/>
+    <cellStyle name="Check Cell 3" xfId="866"/>
+    <cellStyle name="Check Cell 3 2" xfId="867"/>
+    <cellStyle name="Check Cell 3 3" xfId="868"/>
+    <cellStyle name="Check Cell 3 4" xfId="869"/>
+    <cellStyle name="Check Cell 3 5" xfId="870"/>
+    <cellStyle name="Check Cell 3 6" xfId="871"/>
+    <cellStyle name="Check Cell 3 7" xfId="872"/>
+    <cellStyle name="Check Cell 4" xfId="873"/>
+    <cellStyle name="Check Cell 4 2" xfId="874"/>
+    <cellStyle name="Check Cell 4 3" xfId="875"/>
+    <cellStyle name="Check Cell 4 4" xfId="876"/>
+    <cellStyle name="Check Cell 4 5" xfId="877"/>
+    <cellStyle name="Check Cell 4 6" xfId="878"/>
+    <cellStyle name="Check Cell 4 7" xfId="879"/>
+    <cellStyle name="Check Cell 5" xfId="880"/>
+    <cellStyle name="Check Cell 5 2" xfId="881"/>
+    <cellStyle name="Check Cell 5 3" xfId="882"/>
+    <cellStyle name="Check Cell 5 4" xfId="883"/>
+    <cellStyle name="Check Cell 5 5" xfId="884"/>
+    <cellStyle name="Check Cell 5 6" xfId="885"/>
+    <cellStyle name="Check Cell 6" xfId="886"/>
+    <cellStyle name="Check Cell 6 2" xfId="887"/>
+    <cellStyle name="Check Cell 6 3" xfId="888"/>
+    <cellStyle name="Check Cell 6 4" xfId="889"/>
+    <cellStyle name="Check Cell 6 5" xfId="890"/>
+    <cellStyle name="Check Cell 6 6" xfId="891"/>
+    <cellStyle name="Euro" xfId="892"/>
+    <cellStyle name="Euro 2" xfId="893"/>
+    <cellStyle name="Euro 3" xfId="894"/>
+    <cellStyle name="Euro 4" xfId="895"/>
+    <cellStyle name="Euro 5" xfId="896"/>
+    <cellStyle name="Euro 6" xfId="897"/>
+    <cellStyle name="Euro 7" xfId="898"/>
+    <cellStyle name="Euro 8" xfId="899"/>
+    <cellStyle name="Explanatory Text 2" xfId="900"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="901"/>
+    <cellStyle name="Explanatory Text 2 3" xfId="902"/>
+    <cellStyle name="Explanatory Text 2 4" xfId="903"/>
+    <cellStyle name="Explanatory Text 2 5" xfId="904"/>
+    <cellStyle name="Explanatory Text 2 6" xfId="905"/>
+    <cellStyle name="Explanatory Text 2 7" xfId="906"/>
+    <cellStyle name="Explanatory Text 3" xfId="907"/>
+    <cellStyle name="Explanatory Text 3 2" xfId="908"/>
+    <cellStyle name="Explanatory Text 3 3" xfId="909"/>
+    <cellStyle name="Explanatory Text 3 4" xfId="910"/>
+    <cellStyle name="Explanatory Text 3 5" xfId="911"/>
+    <cellStyle name="Explanatory Text 3 6" xfId="912"/>
+    <cellStyle name="Explanatory Text 3 7" xfId="913"/>
+    <cellStyle name="Explanatory Text 4" xfId="914"/>
+    <cellStyle name="Explanatory Text 4 2" xfId="915"/>
+    <cellStyle name="Explanatory Text 4 3" xfId="916"/>
+    <cellStyle name="Explanatory Text 4 4" xfId="917"/>
+    <cellStyle name="Explanatory Text 4 5" xfId="918"/>
+    <cellStyle name="Explanatory Text 4 6" xfId="919"/>
+    <cellStyle name="Explanatory Text 4 7" xfId="920"/>
+    <cellStyle name="Explanatory Text 5" xfId="921"/>
+    <cellStyle name="Explanatory Text 5 2" xfId="922"/>
+    <cellStyle name="Explanatory Text 5 3" xfId="923"/>
+    <cellStyle name="Explanatory Text 5 4" xfId="924"/>
+    <cellStyle name="Explanatory Text 5 5" xfId="925"/>
+    <cellStyle name="Explanatory Text 5 6" xfId="926"/>
+    <cellStyle name="Explanatory Text 6" xfId="927"/>
+    <cellStyle name="Explanatory Text 6 2" xfId="928"/>
+    <cellStyle name="Explanatory Text 6 3" xfId="929"/>
+    <cellStyle name="Explanatory Text 6 4" xfId="930"/>
+    <cellStyle name="Explanatory Text 6 5" xfId="931"/>
+    <cellStyle name="Explanatory Text 6 6" xfId="932"/>
+    <cellStyle name="Good 2" xfId="933"/>
+    <cellStyle name="Good 2 2" xfId="934"/>
+    <cellStyle name="Good 2 3" xfId="935"/>
+    <cellStyle name="Good 2 4" xfId="936"/>
+    <cellStyle name="Good 2 5" xfId="937"/>
+    <cellStyle name="Good 2 6" xfId="938"/>
+    <cellStyle name="Good 2 7" xfId="939"/>
+    <cellStyle name="Good 3" xfId="940"/>
+    <cellStyle name="Good 3 2" xfId="941"/>
+    <cellStyle name="Good 3 3" xfId="942"/>
+    <cellStyle name="Good 3 4" xfId="943"/>
+    <cellStyle name="Good 3 5" xfId="944"/>
+    <cellStyle name="Good 3 6" xfId="945"/>
+    <cellStyle name="Good 3 7" xfId="946"/>
+    <cellStyle name="Good 4" xfId="947"/>
+    <cellStyle name="Good 4 2" xfId="948"/>
+    <cellStyle name="Good 4 3" xfId="949"/>
+    <cellStyle name="Good 4 4" xfId="950"/>
+    <cellStyle name="Good 4 5" xfId="951"/>
+    <cellStyle name="Good 4 6" xfId="952"/>
+    <cellStyle name="Good 4 7" xfId="953"/>
+    <cellStyle name="Good 5" xfId="954"/>
+    <cellStyle name="Good 5 2" xfId="955"/>
+    <cellStyle name="Good 5 3" xfId="956"/>
+    <cellStyle name="Good 5 4" xfId="957"/>
+    <cellStyle name="Good 5 5" xfId="958"/>
+    <cellStyle name="Good 5 6" xfId="959"/>
+    <cellStyle name="Good 6" xfId="960"/>
+    <cellStyle name="Good 6 2" xfId="961"/>
+    <cellStyle name="Good 6 3" xfId="962"/>
+    <cellStyle name="Good 6 4" xfId="963"/>
+    <cellStyle name="Good 6 5" xfId="964"/>
+    <cellStyle name="Good 6 6" xfId="965"/>
+    <cellStyle name="Heading 1 2" xfId="966"/>
+    <cellStyle name="Heading 1 2 2" xfId="967"/>
+    <cellStyle name="Heading 1 2 3" xfId="968"/>
+    <cellStyle name="Heading 1 2 4" xfId="969"/>
+    <cellStyle name="Heading 1 2 5" xfId="970"/>
+    <cellStyle name="Heading 1 2 6" xfId="971"/>
+    <cellStyle name="Heading 1 2 7" xfId="972"/>
+    <cellStyle name="Heading 1 3" xfId="973"/>
+    <cellStyle name="Heading 1 3 2" xfId="974"/>
+    <cellStyle name="Heading 1 3 3" xfId="975"/>
+    <cellStyle name="Heading 1 3 4" xfId="976"/>
+    <cellStyle name="Heading 1 3 5" xfId="977"/>
+    <cellStyle name="Heading 1 3 6" xfId="978"/>
+    <cellStyle name="Heading 1 3 7" xfId="979"/>
+    <cellStyle name="Heading 1 4" xfId="980"/>
+    <cellStyle name="Heading 1 4 2" xfId="981"/>
+    <cellStyle name="Heading 1 4 3" xfId="982"/>
+    <cellStyle name="Heading 1 4 4" xfId="983"/>
+    <cellStyle name="Heading 1 4 5" xfId="984"/>
+    <cellStyle name="Heading 1 4 6" xfId="985"/>
+    <cellStyle name="Heading 1 4 7" xfId="986"/>
+    <cellStyle name="Heading 1 5" xfId="987"/>
+    <cellStyle name="Heading 1 5 2" xfId="988"/>
+    <cellStyle name="Heading 1 5 3" xfId="989"/>
+    <cellStyle name="Heading 1 5 4" xfId="990"/>
+    <cellStyle name="Heading 1 5 5" xfId="991"/>
+    <cellStyle name="Heading 1 5 6" xfId="992"/>
+    <cellStyle name="Heading 1 6" xfId="993"/>
+    <cellStyle name="Heading 1 6 2" xfId="994"/>
+    <cellStyle name="Heading 1 6 3" xfId="995"/>
+    <cellStyle name="Heading 1 6 4" xfId="996"/>
+    <cellStyle name="Heading 1 6 5" xfId="997"/>
+    <cellStyle name="Heading 1 6 6" xfId="998"/>
+    <cellStyle name="Heading 2 2" xfId="999"/>
+    <cellStyle name="Heading 2 2 2" xfId="1000"/>
+    <cellStyle name="Heading 2 2 3" xfId="1001"/>
+    <cellStyle name="Heading 2 2 4" xfId="1002"/>
+    <cellStyle name="Heading 2 2 5" xfId="1003"/>
+    <cellStyle name="Heading 2 2 6" xfId="1004"/>
+    <cellStyle name="Heading 2 2 7" xfId="1005"/>
+    <cellStyle name="Heading 2 3" xfId="1006"/>
+    <cellStyle name="Heading 2 3 2" xfId="1007"/>
+    <cellStyle name="Heading 2 3 3" xfId="1008"/>
+    <cellStyle name="Heading 2 3 4" xfId="1009"/>
+    <cellStyle name="Heading 2 3 5" xfId="1010"/>
+    <cellStyle name="Heading 2 3 6" xfId="1011"/>
+    <cellStyle name="Heading 2 3 7" xfId="1012"/>
+    <cellStyle name="Heading 2 4" xfId="1013"/>
+    <cellStyle name="Heading 2 4 2" xfId="1014"/>
+    <cellStyle name="Heading 2 4 3" xfId="1015"/>
+    <cellStyle name="Heading 2 4 4" xfId="1016"/>
+    <cellStyle name="Heading 2 4 5" xfId="1017"/>
+    <cellStyle name="Heading 2 4 6" xfId="1018"/>
+    <cellStyle name="Heading 2 4 7" xfId="1019"/>
+    <cellStyle name="Heading 2 5" xfId="1020"/>
+    <cellStyle name="Heading 2 5 2" xfId="1021"/>
+    <cellStyle name="Heading 2 5 3" xfId="1022"/>
+    <cellStyle name="Heading 2 5 4" xfId="1023"/>
+    <cellStyle name="Heading 2 5 5" xfId="1024"/>
+    <cellStyle name="Heading 2 5 6" xfId="1025"/>
+    <cellStyle name="Heading 2 6" xfId="1026"/>
+    <cellStyle name="Heading 2 6 2" xfId="1027"/>
+    <cellStyle name="Heading 2 6 3" xfId="1028"/>
+    <cellStyle name="Heading 2 6 4" xfId="1029"/>
+    <cellStyle name="Heading 2 6 5" xfId="1030"/>
+    <cellStyle name="Heading 2 6 6" xfId="1031"/>
+    <cellStyle name="Heading 3 2" xfId="1032"/>
+    <cellStyle name="Heading 3 2 2" xfId="1033"/>
+    <cellStyle name="Heading 3 2 3" xfId="1034"/>
+    <cellStyle name="Heading 3 2 4" xfId="1035"/>
+    <cellStyle name="Heading 3 2 5" xfId="1036"/>
+    <cellStyle name="Heading 3 2 6" xfId="1037"/>
+    <cellStyle name="Heading 3 2 7" xfId="1038"/>
+    <cellStyle name="Heading 3 3" xfId="1039"/>
+    <cellStyle name="Heading 3 3 2" xfId="1040"/>
+    <cellStyle name="Heading 3 3 3" xfId="1041"/>
+    <cellStyle name="Heading 3 3 4" xfId="1042"/>
+    <cellStyle name="Heading 3 3 5" xfId="1043"/>
+    <cellStyle name="Heading 3 3 6" xfId="1044"/>
+    <cellStyle name="Heading 3 3 7" xfId="1045"/>
+    <cellStyle name="Heading 3 4" xfId="1046"/>
+    <cellStyle name="Heading 3 4 2" xfId="1047"/>
+    <cellStyle name="Heading 3 4 3" xfId="1048"/>
+    <cellStyle name="Heading 3 4 4" xfId="1049"/>
+    <cellStyle name="Heading 3 4 5" xfId="1050"/>
+    <cellStyle name="Heading 3 4 6" xfId="1051"/>
+    <cellStyle name="Heading 3 4 7" xfId="1052"/>
+    <cellStyle name="Heading 3 5" xfId="1053"/>
+    <cellStyle name="Heading 3 5 2" xfId="1054"/>
+    <cellStyle name="Heading 3 5 3" xfId="1055"/>
+    <cellStyle name="Heading 3 5 4" xfId="1056"/>
+    <cellStyle name="Heading 3 5 5" xfId="1057"/>
+    <cellStyle name="Heading 3 5 6" xfId="1058"/>
+    <cellStyle name="Heading 3 6" xfId="1059"/>
+    <cellStyle name="Heading 3 6 2" xfId="1060"/>
+    <cellStyle name="Heading 3 6 3" xfId="1061"/>
+    <cellStyle name="Heading 3 6 4" xfId="1062"/>
+    <cellStyle name="Heading 3 6 5" xfId="1063"/>
+    <cellStyle name="Heading 3 6 6" xfId="1064"/>
+    <cellStyle name="Heading 4 2" xfId="1065"/>
+    <cellStyle name="Heading 4 2 2" xfId="1066"/>
+    <cellStyle name="Heading 4 2 3" xfId="1067"/>
+    <cellStyle name="Heading 4 2 4" xfId="1068"/>
+    <cellStyle name="Heading 4 2 5" xfId="1069"/>
+    <cellStyle name="Heading 4 2 6" xfId="1070"/>
+    <cellStyle name="Heading 4 2 7" xfId="1071"/>
+    <cellStyle name="Heading 4 3" xfId="1072"/>
+    <cellStyle name="Heading 4 3 2" xfId="1073"/>
+    <cellStyle name="Heading 4 3 3" xfId="1074"/>
+    <cellStyle name="Heading 4 3 4" xfId="1075"/>
+    <cellStyle name="Heading 4 3 5" xfId="1076"/>
+    <cellStyle name="Heading 4 3 6" xfId="1077"/>
+    <cellStyle name="Heading 4 3 7" xfId="1078"/>
+    <cellStyle name="Heading 4 4" xfId="1079"/>
+    <cellStyle name="Heading 4 4 2" xfId="1080"/>
+    <cellStyle name="Heading 4 4 3" xfId="1081"/>
+    <cellStyle name="Heading 4 4 4" xfId="1082"/>
+    <cellStyle name="Heading 4 4 5" xfId="1083"/>
+    <cellStyle name="Heading 4 4 6" xfId="1084"/>
+    <cellStyle name="Heading 4 4 7" xfId="1085"/>
+    <cellStyle name="Heading 4 5" xfId="1086"/>
+    <cellStyle name="Heading 4 5 2" xfId="1087"/>
+    <cellStyle name="Heading 4 5 3" xfId="1088"/>
+    <cellStyle name="Heading 4 5 4" xfId="1089"/>
+    <cellStyle name="Heading 4 5 5" xfId="1090"/>
+    <cellStyle name="Heading 4 5 6" xfId="1091"/>
+    <cellStyle name="Heading 4 6" xfId="1092"/>
+    <cellStyle name="Heading 4 6 2" xfId="1093"/>
+    <cellStyle name="Heading 4 6 3" xfId="1094"/>
+    <cellStyle name="Heading 4 6 4" xfId="1095"/>
+    <cellStyle name="Heading 4 6 5" xfId="1096"/>
+    <cellStyle name="Heading 4 6 6" xfId="1097"/>
+    <cellStyle name="Hyperlink 2" xfId="1098"/>
+    <cellStyle name="Hyperlink 2 2" xfId="1099"/>
+    <cellStyle name="Input 2" xfId="1100"/>
+    <cellStyle name="Input 2 2" xfId="1101"/>
+    <cellStyle name="Input 2 3" xfId="1102"/>
+    <cellStyle name="Input 2 4" xfId="1103"/>
+    <cellStyle name="Input 2 5" xfId="1104"/>
+    <cellStyle name="Input 2 6" xfId="1105"/>
+    <cellStyle name="Input 2 7" xfId="1106"/>
+    <cellStyle name="Input 3" xfId="1107"/>
+    <cellStyle name="Input 3 2" xfId="1108"/>
+    <cellStyle name="Input 3 3" xfId="1109"/>
+    <cellStyle name="Input 3 4" xfId="1110"/>
+    <cellStyle name="Input 3 5" xfId="1111"/>
+    <cellStyle name="Input 3 6" xfId="1112"/>
+    <cellStyle name="Input 3 7" xfId="1113"/>
+    <cellStyle name="Input 4" xfId="1114"/>
+    <cellStyle name="Input 4 2" xfId="1115"/>
+    <cellStyle name="Input 4 3" xfId="1116"/>
+    <cellStyle name="Input 4 4" xfId="1117"/>
+    <cellStyle name="Input 4 5" xfId="1118"/>
+    <cellStyle name="Input 4 6" xfId="1119"/>
+    <cellStyle name="Input 4 7" xfId="1120"/>
+    <cellStyle name="Input 5" xfId="1121"/>
+    <cellStyle name="Input 5 2" xfId="1122"/>
+    <cellStyle name="Input 5 3" xfId="1123"/>
+    <cellStyle name="Input 5 4" xfId="1124"/>
+    <cellStyle name="Input 5 5" xfId="1125"/>
+    <cellStyle name="Input 5 6" xfId="1126"/>
+    <cellStyle name="Input 6" xfId="1127"/>
+    <cellStyle name="Input 6 2" xfId="1128"/>
+    <cellStyle name="Input 6 3" xfId="1129"/>
+    <cellStyle name="Input 6 4" xfId="1130"/>
+    <cellStyle name="Input 6 5" xfId="1131"/>
+    <cellStyle name="Input 6 6" xfId="1132"/>
+    <cellStyle name="Linked Cell 2" xfId="1133"/>
+    <cellStyle name="Linked Cell 2 2" xfId="1134"/>
+    <cellStyle name="Linked Cell 2 3" xfId="1135"/>
+    <cellStyle name="Linked Cell 2 4" xfId="1136"/>
+    <cellStyle name="Linked Cell 2 5" xfId="1137"/>
+    <cellStyle name="Linked Cell 2 6" xfId="1138"/>
+    <cellStyle name="Linked Cell 2 7" xfId="1139"/>
+    <cellStyle name="Linked Cell 3" xfId="1140"/>
+    <cellStyle name="Linked Cell 3 2" xfId="1141"/>
+    <cellStyle name="Linked Cell 3 3" xfId="1142"/>
+    <cellStyle name="Linked Cell 3 4" xfId="1143"/>
+    <cellStyle name="Linked Cell 3 5" xfId="1144"/>
+    <cellStyle name="Linked Cell 3 6" xfId="1145"/>
+    <cellStyle name="Linked Cell 3 7" xfId="1146"/>
+    <cellStyle name="Linked Cell 4" xfId="1147"/>
+    <cellStyle name="Linked Cell 4 2" xfId="1148"/>
+    <cellStyle name="Linked Cell 4 3" xfId="1149"/>
+    <cellStyle name="Linked Cell 4 4" xfId="1150"/>
+    <cellStyle name="Linked Cell 4 5" xfId="1151"/>
+    <cellStyle name="Linked Cell 4 6" xfId="1152"/>
+    <cellStyle name="Linked Cell 4 7" xfId="1153"/>
+    <cellStyle name="Linked Cell 5" xfId="1154"/>
+    <cellStyle name="Linked Cell 5 2" xfId="1155"/>
+    <cellStyle name="Linked Cell 5 3" xfId="1156"/>
+    <cellStyle name="Linked Cell 5 4" xfId="1157"/>
+    <cellStyle name="Linked Cell 5 5" xfId="1158"/>
+    <cellStyle name="Linked Cell 5 6" xfId="1159"/>
+    <cellStyle name="Linked Cell 6" xfId="1160"/>
+    <cellStyle name="Linked Cell 6 2" xfId="1161"/>
+    <cellStyle name="Linked Cell 6 3" xfId="1162"/>
+    <cellStyle name="Linked Cell 6 4" xfId="1163"/>
+    <cellStyle name="Linked Cell 6 5" xfId="1164"/>
+    <cellStyle name="Linked Cell 6 6" xfId="1165"/>
+    <cellStyle name="Neutral 2" xfId="1166"/>
+    <cellStyle name="Neutral 2 2" xfId="1167"/>
+    <cellStyle name="Neutral 2 3" xfId="1168"/>
+    <cellStyle name="Neutral 2 4" xfId="1169"/>
+    <cellStyle name="Neutral 2 5" xfId="1170"/>
+    <cellStyle name="Neutral 2 6" xfId="1171"/>
+    <cellStyle name="Neutral 2 7" xfId="1172"/>
+    <cellStyle name="Neutral 3" xfId="1173"/>
+    <cellStyle name="Neutral 3 2" xfId="1174"/>
+    <cellStyle name="Neutral 3 3" xfId="1175"/>
+    <cellStyle name="Neutral 3 4" xfId="1176"/>
+    <cellStyle name="Neutral 3 5" xfId="1177"/>
+    <cellStyle name="Neutral 3 6" xfId="1178"/>
+    <cellStyle name="Neutral 3 7" xfId="1179"/>
+    <cellStyle name="Neutral 4" xfId="1180"/>
+    <cellStyle name="Neutral 4 2" xfId="1181"/>
+    <cellStyle name="Neutral 4 3" xfId="1182"/>
+    <cellStyle name="Neutral 4 4" xfId="1183"/>
+    <cellStyle name="Neutral 4 5" xfId="1184"/>
+    <cellStyle name="Neutral 4 6" xfId="1185"/>
+    <cellStyle name="Neutral 4 7" xfId="1186"/>
+    <cellStyle name="Neutral 5" xfId="1187"/>
+    <cellStyle name="Neutral 5 2" xfId="1188"/>
+    <cellStyle name="Neutral 5 3" xfId="1189"/>
+    <cellStyle name="Neutral 5 4" xfId="1190"/>
+    <cellStyle name="Neutral 5 5" xfId="1191"/>
+    <cellStyle name="Neutral 5 6" xfId="1192"/>
+    <cellStyle name="Neutral 6" xfId="1193"/>
+    <cellStyle name="Neutral 6 2" xfId="1194"/>
+    <cellStyle name="Neutral 6 3" xfId="1195"/>
+    <cellStyle name="Neutral 6 4" xfId="1196"/>
+    <cellStyle name="Neutral 6 5" xfId="1197"/>
+    <cellStyle name="Neutral 6 6" xfId="1198"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1199"/>
+    <cellStyle name="Normal 12" xfId="1200"/>
+    <cellStyle name="Normal 12 2" xfId="1201"/>
+    <cellStyle name="Normal 12 3" xfId="1202"/>
+    <cellStyle name="Normal 12 4" xfId="1203"/>
+    <cellStyle name="Normal 12 5" xfId="1204"/>
+    <cellStyle name="Normal 12 6" xfId="1205"/>
+    <cellStyle name="Normal 14" xfId="1206"/>
+    <cellStyle name="Normal 14 2" xfId="1207"/>
+    <cellStyle name="Normal 14 3" xfId="1208"/>
+    <cellStyle name="Normal 14 4" xfId="1209"/>
+    <cellStyle name="Normal 14 5" xfId="1210"/>
+    <cellStyle name="Normal 14 6" xfId="1211"/>
+    <cellStyle name="Normal 15" xfId="1212"/>
+    <cellStyle name="Normal 15 2" xfId="1213"/>
+    <cellStyle name="Normal 15 3" xfId="1214"/>
+    <cellStyle name="Normal 15 4" xfId="1215"/>
+    <cellStyle name="Normal 15 5" xfId="1216"/>
+    <cellStyle name="Normal 15 6" xfId="1217"/>
+    <cellStyle name="Normal 16" xfId="1218"/>
+    <cellStyle name="Normal 16 2" xfId="1219"/>
+    <cellStyle name="Normal 16 3" xfId="1220"/>
+    <cellStyle name="Normal 16 4" xfId="1221"/>
+    <cellStyle name="Normal 16 5" xfId="1222"/>
+    <cellStyle name="Normal 16 6" xfId="1223"/>
+    <cellStyle name="Normal 17" xfId="1224"/>
+    <cellStyle name="Normal 17 2" xfId="1225"/>
+    <cellStyle name="Normal 17 3" xfId="1226"/>
+    <cellStyle name="Normal 17 4" xfId="1227"/>
+    <cellStyle name="Normal 17 5" xfId="1228"/>
+    <cellStyle name="Normal 17 6" xfId="1229"/>
+    <cellStyle name="Normal 19" xfId="1230"/>
+    <cellStyle name="Normal 19 2" xfId="1231"/>
+    <cellStyle name="Normal 19 3" xfId="1232"/>
+    <cellStyle name="Normal 19 4" xfId="1233"/>
+    <cellStyle name="Normal 19 5" xfId="1234"/>
+    <cellStyle name="Normal 19 6" xfId="1235"/>
+    <cellStyle name="Normal 2 2" xfId="1236"/>
+    <cellStyle name="Normal 2 3" xfId="1237"/>
+    <cellStyle name="Normal 2 4" xfId="1238"/>
+    <cellStyle name="Normal 2 5" xfId="1239"/>
+    <cellStyle name="Normal 2 6" xfId="1240"/>
+    <cellStyle name="Normal 2 7" xfId="1241"/>
+    <cellStyle name="Normal 2 8" xfId="1242"/>
+    <cellStyle name="Normal 20" xfId="1243"/>
+    <cellStyle name="Normal 20 2" xfId="1244"/>
+    <cellStyle name="Normal 20 3" xfId="1245"/>
+    <cellStyle name="Normal 20 4" xfId="1246"/>
+    <cellStyle name="Normal 20 5" xfId="1247"/>
+    <cellStyle name="Normal 20 6" xfId="1248"/>
+    <cellStyle name="Normal 21" xfId="1249"/>
+    <cellStyle name="Normal 21 2" xfId="1250"/>
+    <cellStyle name="Normal 21 3" xfId="1251"/>
+    <cellStyle name="Normal 21 4" xfId="1252"/>
+    <cellStyle name="Normal 21 5" xfId="1253"/>
+    <cellStyle name="Normal 21 6" xfId="1254"/>
+    <cellStyle name="Normal 22" xfId="1255"/>
+    <cellStyle name="Normal 22 2" xfId="1256"/>
+    <cellStyle name="Normal 22 3" xfId="1257"/>
+    <cellStyle name="Normal 22 4" xfId="1258"/>
+    <cellStyle name="Normal 22 5" xfId="1259"/>
+    <cellStyle name="Normal 22 6" xfId="1260"/>
+    <cellStyle name="Normal 23" xfId="1261"/>
+    <cellStyle name="Normal 23 2" xfId="1262"/>
+    <cellStyle name="Normal 23 3" xfId="1263"/>
+    <cellStyle name="Normal 23 4" xfId="1264"/>
+    <cellStyle name="Normal 23 5" xfId="1265"/>
+    <cellStyle name="Normal 23 6" xfId="1266"/>
+    <cellStyle name="Normal 24" xfId="1267"/>
+    <cellStyle name="Normal 24 2" xfId="1268"/>
+    <cellStyle name="Normal 24 3" xfId="1269"/>
+    <cellStyle name="Normal 24 4" xfId="1270"/>
+    <cellStyle name="Normal 24 5" xfId="1271"/>
+    <cellStyle name="Normal 24 6" xfId="1272"/>
+    <cellStyle name="Normal 4 10" xfId="1273"/>
+    <cellStyle name="Normal 4 11" xfId="1274"/>
+    <cellStyle name="Normal 4 12" xfId="1275"/>
+    <cellStyle name="Normal 4 13" xfId="1276"/>
+    <cellStyle name="Normal 4 14" xfId="1277"/>
+    <cellStyle name="Normal 4 15" xfId="1278"/>
+    <cellStyle name="Normal 4 16" xfId="1279"/>
+    <cellStyle name="Normal 4 17" xfId="1280"/>
+    <cellStyle name="Normal 4 18" xfId="1281"/>
+    <cellStyle name="Normal 4 2" xfId="1282"/>
+    <cellStyle name="Normal 4 3" xfId="1283"/>
+    <cellStyle name="Normal 4 4" xfId="1284"/>
+    <cellStyle name="Normal 4 5" xfId="1285"/>
+    <cellStyle name="Normal 4 6" xfId="1286"/>
+    <cellStyle name="Normal 4 7" xfId="1287"/>
+    <cellStyle name="Normal 4 8" xfId="1288"/>
+    <cellStyle name="Normal 4 9" xfId="1289"/>
+    <cellStyle name="Normal 8" xfId="1290"/>
+    <cellStyle name="Normal 8 2" xfId="1291"/>
+    <cellStyle name="Normal 8 3" xfId="1292"/>
+    <cellStyle name="Normal 8 4" xfId="1293"/>
+    <cellStyle name="Normal 8 5" xfId="1294"/>
+    <cellStyle name="Normal 8 6" xfId="1295"/>
+    <cellStyle name="Normal 9" xfId="1296"/>
+    <cellStyle name="Normal 9 2" xfId="1297"/>
+    <cellStyle name="Normal 9 3" xfId="1298"/>
+    <cellStyle name="Normal 9 4" xfId="1299"/>
+    <cellStyle name="Normal 9 5" xfId="1300"/>
+    <cellStyle name="Normal 9 6" xfId="1301"/>
+    <cellStyle name="Note 2" xfId="1302"/>
+    <cellStyle name="Note 2 2" xfId="1303"/>
+    <cellStyle name="Note 2 3" xfId="1304"/>
+    <cellStyle name="Note 2 4" xfId="1305"/>
+    <cellStyle name="Note 2 5" xfId="1306"/>
+    <cellStyle name="Note 2 6" xfId="1307"/>
+    <cellStyle name="Note 2 7" xfId="1308"/>
+    <cellStyle name="Note 3" xfId="1309"/>
+    <cellStyle name="Note 3 2" xfId="1310"/>
+    <cellStyle name="Note 3 3" xfId="1311"/>
+    <cellStyle name="Note 3 4" xfId="1312"/>
+    <cellStyle name="Note 3 5" xfId="1313"/>
+    <cellStyle name="Note 3 6" xfId="1314"/>
+    <cellStyle name="Note 3 7" xfId="1315"/>
+    <cellStyle name="Note 4" xfId="1316"/>
+    <cellStyle name="Note 4 2" xfId="1317"/>
+    <cellStyle name="Note 4 3" xfId="1318"/>
+    <cellStyle name="Note 4 4" xfId="1319"/>
+    <cellStyle name="Note 4 5" xfId="1320"/>
+    <cellStyle name="Note 4 6" xfId="1321"/>
+    <cellStyle name="Note 4 7" xfId="1322"/>
+    <cellStyle name="Note 5" xfId="1323"/>
+    <cellStyle name="Note 5 2" xfId="1324"/>
+    <cellStyle name="Note 5 3" xfId="1325"/>
+    <cellStyle name="Note 5 4" xfId="1326"/>
+    <cellStyle name="Note 5 5" xfId="1327"/>
+    <cellStyle name="Note 5 6" xfId="1328"/>
+    <cellStyle name="Note 6" xfId="1329"/>
+    <cellStyle name="Note 6 2" xfId="1330"/>
+    <cellStyle name="Note 6 3" xfId="1331"/>
+    <cellStyle name="Note 6 4" xfId="1332"/>
+    <cellStyle name="Note 6 5" xfId="1333"/>
+    <cellStyle name="Note 6 6" xfId="1334"/>
+    <cellStyle name="Nuovo" xfId="1335"/>
+    <cellStyle name="Output 2" xfId="1336"/>
+    <cellStyle name="Output 2 2" xfId="1337"/>
+    <cellStyle name="Output 2 3" xfId="1338"/>
+    <cellStyle name="Output 2 4" xfId="1339"/>
+    <cellStyle name="Output 2 5" xfId="1340"/>
+    <cellStyle name="Output 2 6" xfId="1341"/>
+    <cellStyle name="Output 2 7" xfId="1342"/>
+    <cellStyle name="Output 3" xfId="1343"/>
+    <cellStyle name="Output 3 2" xfId="1344"/>
+    <cellStyle name="Output 3 3" xfId="1345"/>
+    <cellStyle name="Output 3 4" xfId="1346"/>
+    <cellStyle name="Output 3 5" xfId="1347"/>
+    <cellStyle name="Output 3 6" xfId="1348"/>
+    <cellStyle name="Output 3 7" xfId="1349"/>
+    <cellStyle name="Output 4" xfId="1350"/>
+    <cellStyle name="Output 4 2" xfId="1351"/>
+    <cellStyle name="Output 4 3" xfId="1352"/>
+    <cellStyle name="Output 4 4" xfId="1353"/>
+    <cellStyle name="Output 4 5" xfId="1354"/>
+    <cellStyle name="Output 4 6" xfId="1355"/>
+    <cellStyle name="Output 4 7" xfId="1356"/>
+    <cellStyle name="Output 5" xfId="1357"/>
+    <cellStyle name="Output 5 2" xfId="1358"/>
+    <cellStyle name="Output 5 3" xfId="1359"/>
+    <cellStyle name="Output 5 4" xfId="1360"/>
+    <cellStyle name="Output 5 5" xfId="1361"/>
+    <cellStyle name="Output 5 6" xfId="1362"/>
+    <cellStyle name="Output 6" xfId="1363"/>
+    <cellStyle name="Output 6 2" xfId="1364"/>
+    <cellStyle name="Output 6 3" xfId="1365"/>
+    <cellStyle name="Output 6 4" xfId="1366"/>
+    <cellStyle name="Output 6 5" xfId="1367"/>
+    <cellStyle name="Output 6 6" xfId="1368"/>
+    <cellStyle name="Standard_M_ELE_OU_Primary" xfId="1369"/>
+    <cellStyle name="Title 2" xfId="1370"/>
+    <cellStyle name="Title 2 2" xfId="1371"/>
+    <cellStyle name="Title 2 3" xfId="1372"/>
+    <cellStyle name="Title 2 4" xfId="1373"/>
+    <cellStyle name="Title 2 5" xfId="1374"/>
+    <cellStyle name="Title 2 6" xfId="1375"/>
+    <cellStyle name="Title 2 7" xfId="1376"/>
+    <cellStyle name="Title 3" xfId="1377"/>
+    <cellStyle name="Title 3 2" xfId="1378"/>
+    <cellStyle name="Title 3 3" xfId="1379"/>
+    <cellStyle name="Title 3 4" xfId="1380"/>
+    <cellStyle name="Title 3 5" xfId="1381"/>
+    <cellStyle name="Title 3 6" xfId="1382"/>
+    <cellStyle name="Title 3 7" xfId="1383"/>
+    <cellStyle name="Title 4" xfId="1384"/>
+    <cellStyle name="Title 4 2" xfId="1385"/>
+    <cellStyle name="Title 4 3" xfId="1386"/>
+    <cellStyle name="Title 4 4" xfId="1387"/>
+    <cellStyle name="Title 4 5" xfId="1388"/>
+    <cellStyle name="Title 4 6" xfId="1389"/>
+    <cellStyle name="Title 4 7" xfId="1390"/>
+    <cellStyle name="Title 5" xfId="1391"/>
+    <cellStyle name="Title 5 2" xfId="1392"/>
+    <cellStyle name="Title 5 3" xfId="1393"/>
+    <cellStyle name="Title 5 4" xfId="1394"/>
+    <cellStyle name="Title 5 5" xfId="1395"/>
+    <cellStyle name="Title 5 6" xfId="1396"/>
+    <cellStyle name="Title 6" xfId="1397"/>
+    <cellStyle name="Title 6 2" xfId="1398"/>
+    <cellStyle name="Title 6 3" xfId="1399"/>
+    <cellStyle name="Title 6 4" xfId="1400"/>
+    <cellStyle name="Title 6 5" xfId="1401"/>
+    <cellStyle name="Title 6 6" xfId="1402"/>
+    <cellStyle name="Total 2" xfId="1403"/>
+    <cellStyle name="Total 2 2" xfId="1404"/>
+    <cellStyle name="Total 2 3" xfId="1405"/>
+    <cellStyle name="Total 2 4" xfId="1406"/>
+    <cellStyle name="Total 2 5" xfId="1407"/>
+    <cellStyle name="Total 2 6" xfId="1408"/>
+    <cellStyle name="Total 2 7" xfId="1409"/>
+    <cellStyle name="Total 3" xfId="1410"/>
+    <cellStyle name="Total 3 2" xfId="1411"/>
+    <cellStyle name="Total 3 3" xfId="1412"/>
+    <cellStyle name="Total 3 4" xfId="1413"/>
+    <cellStyle name="Total 3 5" xfId="1414"/>
+    <cellStyle name="Total 3 6" xfId="1415"/>
+    <cellStyle name="Total 3 7" xfId="1416"/>
+    <cellStyle name="Total 4" xfId="1417"/>
+    <cellStyle name="Total 4 2" xfId="1418"/>
+    <cellStyle name="Total 4 3" xfId="1419"/>
+    <cellStyle name="Total 4 4" xfId="1420"/>
+    <cellStyle name="Total 4 5" xfId="1421"/>
+    <cellStyle name="Total 4 6" xfId="1422"/>
+    <cellStyle name="Total 4 7" xfId="1423"/>
+    <cellStyle name="Total 5" xfId="1424"/>
+    <cellStyle name="Total 5 2" xfId="1425"/>
+    <cellStyle name="Total 5 3" xfId="1426"/>
+    <cellStyle name="Total 5 4" xfId="1427"/>
+    <cellStyle name="Total 5 5" xfId="1428"/>
+    <cellStyle name="Total 5 6" xfId="1429"/>
+    <cellStyle name="Total 6" xfId="1430"/>
+    <cellStyle name="Total 6 2" xfId="1431"/>
+    <cellStyle name="Total 6 3" xfId="1432"/>
+    <cellStyle name="Total 6 4" xfId="1433"/>
+    <cellStyle name="Total 6 5" xfId="1434"/>
+    <cellStyle name="Total 6 6" xfId="1435"/>
+    <cellStyle name="Warning Text 2" xfId="1436"/>
+    <cellStyle name="Warning Text 2 2" xfId="1437"/>
+    <cellStyle name="Warning Text 2 3" xfId="1438"/>
+    <cellStyle name="Warning Text 2 4" xfId="1439"/>
+    <cellStyle name="Warning Text 2 5" xfId="1440"/>
+    <cellStyle name="Warning Text 2 6" xfId="1441"/>
+    <cellStyle name="Warning Text 2 7" xfId="1442"/>
+    <cellStyle name="Warning Text 3" xfId="1443"/>
+    <cellStyle name="Warning Text 3 2" xfId="1444"/>
+    <cellStyle name="Warning Text 3 3" xfId="1445"/>
+    <cellStyle name="Warning Text 3 4" xfId="1446"/>
+    <cellStyle name="Warning Text 3 5" xfId="1447"/>
+    <cellStyle name="Warning Text 3 6" xfId="1448"/>
+    <cellStyle name="Warning Text 3 7" xfId="1449"/>
+    <cellStyle name="Warning Text 4" xfId="1450"/>
+    <cellStyle name="Warning Text 4 2" xfId="1451"/>
+    <cellStyle name="Warning Text 4 3" xfId="1452"/>
+    <cellStyle name="Warning Text 4 4" xfId="1453"/>
+    <cellStyle name="Warning Text 4 5" xfId="1454"/>
+    <cellStyle name="Warning Text 4 6" xfId="1455"/>
+    <cellStyle name="Warning Text 4 7" xfId="1456"/>
+    <cellStyle name="Warning Text 5" xfId="1457"/>
+    <cellStyle name="Warning Text 5 2" xfId="1458"/>
+    <cellStyle name="Warning Text 5 3" xfId="1459"/>
+    <cellStyle name="Warning Text 5 4" xfId="1460"/>
+    <cellStyle name="Warning Text 5 5" xfId="1461"/>
+    <cellStyle name="Warning Text 5 6" xfId="1462"/>
+    <cellStyle name="Warning Text 6" xfId="1463"/>
+    <cellStyle name="Warning Text 6 2" xfId="1464"/>
+    <cellStyle name="Warning Text 6 3" xfId="1465"/>
+    <cellStyle name="Warning Text 6 4" xfId="1466"/>
+    <cellStyle name="Warning Text 6 5" xfId="1467"/>
+    <cellStyle name="Warning Text 6 6" xfId="1468"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,23 +3857,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -558,14 +3881,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1"/>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.5">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -579,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>2</v>
@@ -590,13 +3913,13 @@
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1">
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>2030</v>
@@ -605,18 +3928,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1">
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>2035</v>
@@ -625,18 +3948,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1">
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
         <v>2040</v>
@@ -645,18 +3968,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1">
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="9">
         <v>2050</v>
@@ -666,18 +3989,18 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -687,13 +4010,52 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>